--- a/filelist.xlsx
+++ b/filelist.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="List of Files" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="List of Files" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -140,13 +140,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -488,12 +488,12 @@
     <row r="3" ht="52" customHeight="1">
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-07 144957 switch_before_go.png</t>
+          <t>Screenshot 2023-03-15 084217.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2/7/2025 2:50:11 PM</t>
+          <t>3/15/2023 8:42:17 AM</t>
         </is>
       </c>
     </row>

--- a/filelist.xlsx
+++ b/filelist.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="List of Files" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="List of Files" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -140,13 +140,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,114 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Screenshot 2023-07-08 232944.png</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7/8/2023 11:29:44 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-01-22 181352.png</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1/22/2024 6:13:52 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-04-03 020733.png</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4/3/2024 2:07:33 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-06-17 095518.png</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6/17/2024 9:55:18 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-09-11 162109.png</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9/11/2024 4:21:09 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-29 193826.png</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10/29/2024 7:38:26 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-12-05 011455.png</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12/5/2024 1:14:55 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-02-14 224612.png</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2/14/2025 10:46:12 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-19 152941.png</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5/19/2025 3:29:41 PM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/filelist.xlsx
+++ b/filelist.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,120 +488,4188 @@
     <row r="3" ht="52" customHeight="1">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Screenshot 2023-03-15 084217.png</t>
+          <t>2025-02-07 144957 switch_before_go.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3/15/2023 8:42:17 AM</t>
+          <t>Friday, February 7, 2025 2:50:11 PM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Screenshot 2023-07-08 232944.png</t>
+          <t>cse100_lab4_BothPlayers_LOSE.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7/8/2023 11:29:44 PM</t>
+          <t>Wednesday, February 12, 2025 9:55:13 AM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Screenshot 2024-01-22 181352.png</t>
+          <t>cse100_lab4_BothPlayers_WIN.png</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1/22/2024 6:13:52 PM</t>
+          <t>Wednesday, February 12, 2025 10:00:57 AM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Screenshot 2024-04-03 020733.png</t>
+          <t>cse100_lab4_PlayerA_wins.png</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4/3/2024 2:07:33 AM</t>
+          <t>Wednesday, February 12, 2025 9:47:51 AM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Screenshot 2024-06-17 095518.png</t>
+          <t>cse100_lab4_PlayerB_wins.png</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6/17/2024 9:55:18 AM</t>
+          <t>Wednesday, February 12, 2025 9:54:05 AM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Screenshot 2024-09-11 162109.png</t>
+          <t>CSE100_Statemachine_question 2025-02-02 1050.png</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9/11/2024 4:21:09 PM</t>
+          <t>Sunday, February 2, 2025 10:50:15 AM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Screenshot 2024-10-29 193826.png</t>
+          <t>CSE100_Statemachine_schematic.png</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10/29/2024 7:38:26 PM</t>
+          <t>Tuesday, February 11, 2025 10:12:34 AM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Screenshot 2024-12-05 011455.png</t>
+          <t>CSE3_SCRATCHgame 2025-07-23 224218.png</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12/5/2024 1:14:55 AM</t>
+          <t>Wednesday, July 23, 2025 10:42:28 PM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Screenshot 2025-02-14 224612.png</t>
+          <t>ECE118_20250403_1232.png</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2/14/2025 10:46:12 PM</t>
+          <t>Thursday, April 3, 2025 12:32:47 PM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Screenshot 2025-05-19 152941.png</t>
+          <t>ECE118_20250403_1246.png</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5/19/2025 3:29:41 PM</t>
+          <t>Thursday, April 3, 2025 12:46:46 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE118_20250403_1315.png</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Thursday, April 3, 2025 1:15:31 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>IMG_0639.PNG</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Thursday, June 12, 2025 1:48:11 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>IMG_20250301_111833072.png</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Saturday, March 1, 2025 11:22:49 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Lab2_CAD-drawing_20250511.png</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sunday, May 11, 2025 7:27:12 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Schematic_countUD8L.png</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Monday, February 10, 2025 9:25:52 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Schematic_LFSR.png</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Monday, February 10, 2025 8:53:43 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Schematic_StateMachine4.png</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Monday, February 10, 2025 9:39:33 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Schematic_TopLevel4.png</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Monday, February 10, 2025 4:41:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-02-13 162201.png</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Tuesday, February 13, 2024 4:22:01 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-04-10 115750.png</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Wednesday, April 10, 2024 11:58:01 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-05-05 181752.png</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Sunday, May 5, 2024 6:18:14 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-05-05 230541.png</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Sunday, May 5, 2024 11:06:02 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-05-06 212020.png</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Monday, May 6, 2024 9:20:27 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-05-08 182509.png</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Wednesday, May 8, 2024 6:25:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-05-11 003639.png</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Saturday, May 11, 2024 12:40:14 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-05-15 004329.png</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Wednesday, May 15, 2024 12:43:59 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-05-15 004558.png</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Wednesday, May 15, 2024 12:46:25 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-05-15 004709.png</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Wednesday, May 15, 2024 12:47:39 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-05-15 005454.png</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Wednesday, May 15, 2024 12:55:11 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-05-16 200955.png</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Thursday, May 16, 2024 8:10:11 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-05-16 204900.png</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Thursday, May 16, 2024 8:49:06 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-05-19 125316.png</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Sunday, May 19, 2024 12:53:40 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-05-20 163605.png</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Monday, May 20, 2024 4:39:32 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-05-20 214348.png</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Monday, May 20, 2024 9:43:56 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-05-21 174330.png</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Tuesday, May 21, 2024 5:43:52 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-06-06 133307.png</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Thursday, June 6, 2024 1:33:11 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-06-06 133440.png</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Thursday, June 6, 2024 1:34:44 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-06-06 145654.png</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Thursday, June 6, 2024 2:56:54 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-06-06 145713.png</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Thursday, June 6, 2024 2:57:16 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-06-06 145822.png</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Thursday, June 6, 2024 2:58:22 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-06-06 145840.png</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Thursday, June 6, 2024 2:58:43 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-21 172754.png</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Wednesday, August 21, 2024 5:27:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-21 173050.png</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Wednesday, August 21, 2024 5:30:51 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-21 173442.png</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Wednesday, August 21, 2024 5:34:43 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-21 173452.png</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Wednesday, August 21, 2024 5:34:52 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-21 173609.png</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Wednesday, August 21, 2024 5:36:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-21 173648.png</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Wednesday, August 21, 2024 5:36:48 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-21 173948.png</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Wednesday, August 21, 2024 5:39:49 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-21 174301.png</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Wednesday, August 21, 2024 5:43:02 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-21 174609.png</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Wednesday, August 21, 2024 5:46:09 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-21 175019.png</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Wednesday, August 21, 2024 5:50:20 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-21 175131.png</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Wednesday, August 21, 2024 5:51:31 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-21 175330.png</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Wednesday, August 21, 2024 5:53:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-21 175424.png</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Wednesday, August 21, 2024 5:54:25 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-21 175531.png</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Wednesday, August 21, 2024 5:55:32 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-21 175601.png</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Wednesday, August 21, 2024 5:56:01 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-21 175650.png</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Wednesday, August 21, 2024 5:56:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-21 175719.png</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Wednesday, August 21, 2024 5:57:19 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-21 183259.png</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Wednesday, August 21, 2024 6:32:59 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-21 183312.png</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Wednesday, August 21, 2024 6:33:12 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-21 183357.png</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Wednesday, August 21, 2024 6:33:57 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-23 120733.png</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Friday, August 23, 2024 12:08:01 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-23 120856.png</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Friday, August 23, 2024 12:09:32 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-23 121045.png</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Friday, August 23, 2024 12:11:03 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-23 121751.png</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Friday, August 23, 2024 12:18:21 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-23 121837.png</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Friday, August 23, 2024 12:19:01 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-23 153432.png</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Friday, August 23, 2024 3:34:56 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-23 153506.png</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Friday, August 23, 2024 3:35:39 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-23 153608.png</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Friday, August 23, 2024 3:36:29 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-23 154559.png</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Friday, August 23, 2024 3:46:34 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-08-23 155425.png</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Friday, August 23, 2024 3:54:51 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-09-20 091542.png</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Friday, September 20, 2024 9:15:43 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-09-22 114109.png</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Sunday, September 22, 2024 11:41:10 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-09-22 142408.png</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Sunday, September 22, 2024 2:24:08 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-09-22 145507.png</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Sunday, September 22, 2024 2:55:08 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-09-26 220350.png</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Thursday, September 26, 2024 10:03:51 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-03 135514.png</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Thursday, October 3, 2024 1:55:37 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-04 023958.png</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Friday, October 4, 2024 2:40:28 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-04 115639.png</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Friday, October 4, 2024 12:44:24 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-04 211319.png</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Friday, October 4, 2024 9:13:46 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-04 212457.png</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Friday, October 4, 2024 9:25:29 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-04 222748.png</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Friday, October 4, 2024 10:28:14 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-04 224728.png</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Friday, October 4, 2024 10:47:54 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-06 163417.png</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Sunday, October 6, 2024 4:34:43 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-14 105051.png</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Monday, October 14, 2024 10:51:13 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-15 141604.png</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Tuesday, October 15, 2024 2:16:20 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-24 123911.png</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Thursday, October 24, 2024 12:39:42 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-24 223327.png</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Thursday, October 24, 2024 10:33:47 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-25 170451.png</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Friday, October 25, 2024 5:05:14 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-26 220604.png</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Saturday, October 26, 2024 10:06:04 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-26 220800.png</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Saturday, October 26, 2024 10:08:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-27 194648.png</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Sunday, October 27, 2024 7:47:25 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-27 194741.png</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Sunday, October 27, 2024 7:48:02 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-27 194822.png</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Sunday, October 27, 2024 7:48:42 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-29 222129.png</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Tuesday, October 29, 2024 10:22:02 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-10-29 224435.png</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Tuesday, October 29, 2024 10:44:53 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-03 123302.png</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Sunday, November 3, 2024 12:33:54 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-03 124348.png</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Sunday, November 3, 2024 12:44:16 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-03 124852.png</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Sunday, November 3, 2024 12:49:19 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-03 130607.png</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Sunday, November 3, 2024 1:06:36 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-03 131444.png</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Sunday, November 3, 2024 1:17:27 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-03 131828.png</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Sunday, November 3, 2024 1:18:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-03 154227.png</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Sunday, November 3, 2024 3:43:04 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-03 165110.png</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Sunday, November 3, 2024 4:51:37 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-03 170428.png</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Sunday, November 3, 2024 5:04:57 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-03 191934.png</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Sunday, November 3, 2024 7:19:58 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-03 192257.png</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Sunday, November 3, 2024 7:23:32 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-03 193111.png</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Sunday, November 3, 2024 7:31:11 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-03 193139.png</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Sunday, November 3, 2024 7:31:42 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-03 193537.png</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Sunday, November 3, 2024 7:36:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-04 152138.png</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Monday, November 4, 2024 3:22:05 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-04 153823.png</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Monday, November 4, 2024 3:38:49 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-04 155152.png</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Monday, November 4, 2024 3:52:38 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-05 191357.png</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Tuesday, November 5, 2024 7:14:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-05 191452.png</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Tuesday, November 5, 2024 7:15:36 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-05 223636.png</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Tuesday, November 5, 2024 10:37:01 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-06 011018.png</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Wednesday, November 6, 2024 1:10:46 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-06 015530.png</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Wednesday, November 6, 2024 1:55:57 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-10 015738.png</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Sunday, November 10, 2024 1:58:03 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-10 045303.png</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Sunday, November 10, 2024 4:53:41 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-10 045401.png</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Sunday, November 10, 2024 4:54:51 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-10 050351.png</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Sunday, November 10, 2024 5:03:52 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-10 050525.png</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Sunday, November 10, 2024 5:05:25 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-10 050615 - Copy.png</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Sunday, November 10, 2024 3:45:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-10 050615.png</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Sunday, November 10, 2024 5:06:15 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-10 221231.png</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Sunday, November 10, 2024 10:12:31 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-13 002332.png</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Wednesday, November 13, 2024 12:23:33 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-15 005845.png</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Friday, November 15, 2024 12:58:45 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-15 005912.png</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Friday, November 15, 2024 12:59:25 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-15 164035.png</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Friday, November 15, 2024 4:40:56 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-16 182546.png</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Saturday, November 16, 2024 6:26:54 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-16 225139.png</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Saturday, November 16, 2024 10:51:39 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-16 225306.png</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Saturday, November 16, 2024 10:53:07 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-16 230722.png</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Saturday, November 16, 2024 11:07:22 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-16 230841.png</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Saturday, November 16, 2024 11:08:41 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-16 230947.png</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Saturday, November 16, 2024 11:09:48 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-16 232103.png</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Saturday, November 16, 2024 11:21:03 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-16 232851.png</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Saturday, November 16, 2024 11:28:51 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-17 010536.png</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Sunday, November 17, 2024 1:05:37 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-17 014109.png</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Sunday, November 17, 2024 1:41:09 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-18 152149.png</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Monday, November 18, 2024 3:21:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-18 154311.png</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Monday, November 18, 2024 3:43:11 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-18 160328.png</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Monday, November 18, 2024 4:03:28 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-18 164815.png</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Monday, November 18, 2024 4:48:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-28 194603.png</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Thursday, November 28, 2024 7:46:03 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-28 194628.png</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Thursday, November 28, 2024 7:46:43 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-11-30 173310.png</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Saturday, November 30, 2024 5:33:39 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-12-06 160548.png</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Friday, December 6, 2024 4:11:14 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-12-13 122228.png</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Friday, December 13, 2024 12:47:05 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-12-13 132924.png</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Friday, December 13, 2024 1:29:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-12-13 142435.png</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Friday, December 13, 2024 2:24:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-12-13 142454.png</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Friday, December 13, 2024 2:45:03 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-12-13 145322.png</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Friday, December 13, 2024 2:53:59 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-12-13 153654.png</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Friday, December 13, 2024 3:38:09 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-12-13 155304.png</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Friday, December 13, 2024 3:53:57 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-12-19 212609.png</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Thursday, December 19, 2024 9:26:22 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-12-30 121431.png</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Monday, December 30, 2024 12:15:11 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-12-31 105754.png</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Tuesday, December 31, 2024 10:58:18 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-12-31 105829.png</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Tuesday, December 31, 2024 10:58:52 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Screenshot 2024-12-31 171125.png</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Tuesday, December 31, 2024 5:12:04 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-01-04 204209.png</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Saturday, January 4, 2025 8:42:09 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-01-06 130545.png</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Monday, January 6, 2025 1:06:07 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-01-08 104701.png</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Wednesday, January 8, 2025 10:47:01 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-01-09 193717.png</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Thursday, January 9, 2025 7:37:52 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-01-10 103319.png</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Friday, January 10, 2025 10:33:19 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-01-13 092258.png</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Monday, January 13, 2025 9:23:38 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-01-14 191957.png</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Tuesday, January 14, 2025 7:19:57 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-01-25 1637221.png</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Saturday, January 25, 2025 4:44:18 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-01-26 192143.png</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Sunday, January 26, 2025 7:21:43 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-01-27 2020.png</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Monday, January 27, 2025 8:20:26 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-01-30 163427.png</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Thursday, January 30, 2025 4:38:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-02-01 154745.png</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Saturday, February 1, 2025 4:46:33 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-02-01 164250.png</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Saturday, February 1, 2025 4:45:32 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-02-01 175456.png</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Saturday, February 1, 2025 5:54:57 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-02-02 103645.png</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Sunday, February 2, 2025 10:36:45 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-02-12 094704.png</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Wednesday, February 12, 2025 9:47:04 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-02-12 094928.png</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Wednesday, February 12, 2025 9:49:28 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-02-12 095450.png</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Wednesday, February 12, 2025 9:54:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-02-12 100041.png</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Wednesday, February 12, 2025 10:00:42 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-02-21 105333.png</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Friday, February 21, 2025 10:53:34 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-03-01 111629.png</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Saturday, March 1, 2025 11:16:29 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-03-04 120746.png</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Tuesday, March 4, 2025 12:07:46 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-03-06 130350.png</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Thursday, March 6, 2025 1:03:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-03-07 114625.png</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Friday, March 7, 2025 11:46:26 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-03-07 114732.png</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Friday, March 7, 2025 11:47:33 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-03-07 120723.png</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Friday, March 7, 2025 12:07:24 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-03-10 135413.png</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Monday, March 10, 2025 1:54:14 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-03-17 175519.png</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Monday, March 17, 2025 5:55:20 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-03-25 144731.png</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Tuesday, March 25, 2025 2:47:32 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-03-30 225813.png</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Sunday, March 30, 2025 10:58:14 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-02 144720.png</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Wednesday, April 2, 2025 2:47:21 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-03 120846.png</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Thursday, April 3, 2025 12:08:47 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-03 121759.png</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Thursday, April 3, 2025 12:17:59 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-03 124852.png</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Thursday, April 3, 2025 12:48:53 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-06 130427.png</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Sunday, April 6, 2025 1:04:56 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-06 191326.png</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Sunday, April 6, 2025 7:13:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-09 103507.png</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Wednesday, April 9, 2025 10:35:11 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-11 173313.png</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Friday, April 11, 2025 5:33:16 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-12 102301.png</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Saturday, April 12, 2025 10:23:15 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-12 160155.png</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Saturday, April 12, 2025 4:02:03 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-12 163247.png</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Saturday, April 12, 2025 4:32:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-12 164726.png</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Saturday, April 12, 2025 4:47:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-12 164812.png</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Saturday, April 12, 2025 4:48:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-12 165408.png</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Saturday, April 12, 2025 4:54:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-12 165552.png</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Saturday, April 12, 2025 4:55:57 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-12 170200.png</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Saturday, April 12, 2025 5:02:07 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-12 170250.png</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Saturday, April 12, 2025 5:02:54 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-12 171705.png</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Saturday, April 12, 2025 5:17:09 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-15 095113.png</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Tuesday, April 15, 2025 9:51:15 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-16 124546.png</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Wednesday, April 16, 2025 12:45:57 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-17 163602.png</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Thursday, April 17, 2025 4:36:09 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-17 163650.png</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Thursday, April 17, 2025 4:36:57 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-17 164424.png</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Thursday, April 17, 2025 4:44:26 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-17 164549.png</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Thursday, April 17, 2025 4:45:51 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-17 164719.png</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Thursday, April 17, 2025 4:47:22 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-17 164859.png</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Thursday, April 17, 2025 4:49:04 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-17 165109.png</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Thursday, April 17, 2025 4:51:11 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-17 172108.png</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Thursday, April 17, 2025 5:21:13 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-17 172143.png</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Thursday, April 17, 2025 5:21:49 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-19 205907.png</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Saturday, April 19, 2025 8:59:17 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-21 194344.png</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Monday, April 21, 2025 7:43:52 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-21 194424.png</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Monday, April 21, 2025 7:44:31 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-21 194655.png</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Monday, April 21, 2025 7:47:06 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-21 194812.png</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Monday, April 21, 2025 7:48:21 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-21 194951.png</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Monday, April 21, 2025 7:50:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-21 195024.png</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Monday, April 21, 2025 7:50:32 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-21 collage.png</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Monday, April 21, 2025 8:15:40 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-22 081328.png</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Tuesday, April 22, 2025 8:13:36 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-24 212857.png</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Thursday, April 24, 2025 9:29:07 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-24 213203.png</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Thursday, April 24, 2025 9:32:09 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-24 213230.png</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Thursday, April 24, 2025 9:32:40 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-24 213402.png</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Thursday, April 24, 2025 9:34:06 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-24 213440.png</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Thursday, April 24, 2025 9:34:45 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-24 220745.png</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Thursday, April 24, 2025 10:07:52 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-24 220811.png</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Thursday, April 24, 2025 10:08:16 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-24 220823.png</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Thursday, April 24, 2025 10:08:29 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-24 220844.png</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Thursday, April 24, 2025 10:08:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-26 103129.png</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Saturday, April 26, 2025 10:31:39 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-26 111009.png</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Saturday, April 26, 2025 11:10:16 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-26 144855.png</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Saturday, April 26, 2025 2:49:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-26 233927.png</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Saturday, April 26, 2025 11:39:33 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-30 153155.png</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Wednesday, April 30, 2025 3:32:04 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-30 204130.png</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Wednesday, April 30, 2025 8:41:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-04-30 211540.png</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Wednesday, April 30, 2025 9:15:46 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-02 161100.png</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Friday, May 2, 2025 4:11:09 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-02 161735.png</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Friday, May 2, 2025 4:17:39 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-06 003339.png</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Tuesday, May 6, 2025 12:33:48 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-06 013856.png</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Tuesday, May 6, 2025 1:38:59 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-06 014110.png</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Tuesday, May 6, 2025 1:41:15 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-06 014244.png</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Tuesday, May 6, 2025 1:42:47 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-06 041659.png</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Tuesday, May 6, 2025 4:17:07 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-06 041811.png</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Tuesday, May 6, 2025 4:18:17 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-06 041845.png</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Tuesday, May 6, 2025 4:22:15 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-06 043302.png</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Tuesday, May 6, 2025 4:33:09 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-06 111251.png</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Tuesday, May 6, 2025 11:12:54 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-06 112725.png</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Tuesday, May 6, 2025 11:27:27 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-08 152958.png</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Thursday, May 8, 2025 3:30:01 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-08 153921.png</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Thursday, May 8, 2025 3:39:23 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-08 154757.png</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Thursday, May 8, 2025 3:48:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-08 155812.png</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Thursday, May 8, 2025 3:58:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-08 161834.png</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Thursday, May 8, 2025 4:18:37 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-08 162047.png</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Thursday, May 8, 2025 4:20:49 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-08 163445.png</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Thursday, May 8, 2025 4:34:49 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-08 163457.png</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Thursday, May 8, 2025 4:35:02 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-08 163753.png</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Thursday, May 8, 2025 4:37:56 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-08 164212.png</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Thursday, May 8, 2025 4:42:14 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-08 164608.png</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Thursday, May 8, 2025 4:46:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-09 091947.png</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Friday, May 9, 2025 9:19:51 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-09 155910.png</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Friday, May 9, 2025 3:59:14 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-15 152505.png</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Thursday, May 15, 2025 3:25:09 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-15 152921.png</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Thursday, May 15, 2025 3:29:27 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-15 153101.png</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Thursday, May 15, 2025 3:31:04 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-15 153348.png</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Thursday, May 15, 2025 3:33:51 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-15 153435.png</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Thursday, May 15, 2025 3:34:37 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-15 153547.png</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Thursday, May 15, 2025 3:35:49 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-15 153736.png</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Thursday, May 15, 2025 3:37:39 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-15 153839.png</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Thursday, May 15, 2025 3:38:41 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-15 161358.png</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Thursday, May 15, 2025 4:14:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-15 161547.png</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Thursday, May 15, 2025 4:15:52 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-19 184906.png</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Monday, May 19, 2025 6:49:09 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-20 125559.png</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Tuesday, May 20, 2025 12:56:06 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-20 125828.png</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Tuesday, May 20, 2025 12:58:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-20 130129.png</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Tuesday, May 20, 2025 1:01:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-20 154258.png</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Tuesday, May 20, 2025 3:48:01 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 151501.png</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Thursday, May 22, 2025 3:15:05 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 154112.png</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Thursday, May 22, 2025 3:41:19 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 154522.png</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Thursday, May 22, 2025 3:45:25 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 154544.png</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Thursday, May 22, 2025 3:45:46 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 154948.png</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Thursday, May 22, 2025 3:49:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 155016.png</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Thursday, May 22, 2025 3:50:18 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 160008.png</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Thursday, May 22, 2025 4:00:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 160132.png</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Thursday, May 22, 2025 4:01:34 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 160317.png</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Thursday, May 22, 2025 4:03:19 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 160938.png</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Monday, July 21, 2025 11:26:46 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 161535.png</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Thursday, May 22, 2025 4:15:37 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 162030.png</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Thursday, May 22, 2025 4:20:32 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 162130.png</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Thursday, May 22, 2025 4:21:36 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 162738.png</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Thursday, May 22, 2025 4:27:41 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 163206.png</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Thursday, May 22, 2025 4:32:08 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 163855.png</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Thursday, May 22, 2025 4:38:58 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 164135.png</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Thursday, May 22, 2025 4:41:38 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 164209.png</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Thursday, May 22, 2025 4:42:11 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 164421.png</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Thursday, May 22, 2025 4:44:23 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 165226.png</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Thursday, May 22, 2025 4:52:28 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-22 165940.png</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Thursday, May 22, 2025 4:59:42 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-25 200403.png</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Sunday, May 25, 2025 8:04:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-27 123652.png</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Tuesday, May 27, 2025 12:36:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-27 123727.png</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Tuesday, May 27, 2025 12:37:29 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-27 123759.png</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Tuesday, May 27, 2025 12:38:01 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-29 153716.png</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Thursday, May 29, 2025 3:37:22 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-29 154034.png</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Thursday, May 29, 2025 3:40:38 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-29 155712.png</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Thursday, May 29, 2025 3:57:17 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-29 160425.png</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Thursday, May 29, 2025 4:04:34 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-29 161104.png</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Thursday, May 29, 2025 4:11:09 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-29 161231.png</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Thursday, May 29, 2025 4:12:36 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-29 161937.png</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Thursday, May 29, 2025 4:19:42 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-29 162241.png</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Thursday, May 29, 2025 4:22:46 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-29 163345.png</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Thursday, May 29, 2025 4:33:49 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-29 164650.png</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Thursday, May 29, 2025 4:49:21 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-05-29 165000.png</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Thursday, May 29, 2025 4:51:21 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-06-03 204047.png</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Tuesday, June 3, 2025 8:40:51 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-06-07 190249.png</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Saturday, June 7, 2025 7:03:02 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-06-09 220304.png</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Monday, June 9, 2025 10:03:07 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-06-11 231306.png</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Wednesday, June 11, 2025 11:13:09 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-06-12 141130.png</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Thursday, June 12, 2025 2:11:33 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-06-13 194145.png</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Friday, June 13, 2025 7:41:53 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-06-27 132819.png</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Friday, June 27, 2025 1:28:27 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-07-10 202539.png</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Thursday, July 10, 2025 8:26:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-07-16 233549.png</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Wednesday, July 16, 2025 11:35:52 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-07-18 185656.png</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Friday, July 18, 2025 6:57:04 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-07-20 174047.png</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Sunday, July 20, 2025 5:40:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-07-23 131602.png</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Wednesday, July 23, 2025 1:16:06 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-07-23 132025.png</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Wednesday, July 23, 2025 1:20:29 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-07-23 132355.png</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Wednesday, July 23, 2025 1:23:58 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-08-01 225639.png</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Friday, August 1, 2025 10:56:48 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-08-02 200703.png</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Saturday, August 2, 2025 8:07:06 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-08-03 133018.png</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Sunday, August 3, 2025 1:30:25 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-08-03 154812.png</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Sunday, August 3, 2025 3:48:23 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-08-05 160007.png</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Tuesday, August 5, 2025 4:00:11 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-08-05 160313.png</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Tuesday, August 5, 2025 4:03:16 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-08-12 121830.png</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Tuesday, August 12, 2025 12:18:34 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-08-12 221638.png</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Tuesday, August 12, 2025 10:16:42 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-08-14 132720.png</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Thursday, August 14, 2025 1:27:23 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-08-16 173140.png</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Saturday, August 16, 2025 5:31:45 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-08-18 204837.png</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Monday, August 18, 2025 8:48:40 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-08-18 214632.png</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Monday, August 18, 2025 9:47:26 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-08-21 113833.png</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Thursday, August 21, 2025 11:38:36 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-08-26 102531.png</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Tuesday, August 26, 2025 10:25:36 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Screenshot 2025-08-26 154613.png</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Tuesday, August 26, 2025 3:46:20 PM</t>
         </is>
       </c>
     </row>

--- a/filelist.xlsx
+++ b/filelist.xlsx
@@ -141,6 +141,8706 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="523875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="523875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="542925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="523875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="542925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="742950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1028700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="457200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="361950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="419100"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId11"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="609600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId12"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="514350"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1228725"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId14"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="457200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId15"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1200150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId16"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="295275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId17"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="485775"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId18"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId19"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId20"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="552450"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId21"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="438150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId22"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId23"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="828675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId24"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="2447925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId25"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="790575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId26"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>28</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="781050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId27"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="876300"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId28"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="876300"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId29"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>31</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="552450"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId30"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="31" name="Image 31" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId31"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>33</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="447675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="32" name="Image 32" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId32"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>34</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="638175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId33"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>35</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId34"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="533400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId35"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId36"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>38</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="37" name="Image 37" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId37"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="38" name="Image 38" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId38"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>40</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="561975"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="39" name="Image 39" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId39"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>41</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="40" name="Image 40" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId40"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>42</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="561975"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="41" name="Image 41" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId41"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>43</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="42" name="Image 42" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId42"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="43" name="Image 43" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId43"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>45</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="44" name="Image 44" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId44"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>46</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="45" name="Image 45" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId45"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>47</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="46" name="Image 46" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId46"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>48</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="47" name="Image 47" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId47"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>49</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="48" name="Image 48" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId48"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>50</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="49" name="Image 49" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId49"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>51</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="50" name="Image 50" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId50"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>52</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="51" name="Image 51" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId51"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>53</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="52" name="Image 52" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId52"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>54</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="53" name="Image 53" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId53"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>55</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="54" name="Image 54" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId54"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>56</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="55" name="Image 55" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId55"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>57</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="56" name="Image 56" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId56"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>58</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="57" name="Image 57" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId57"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="58" name="Image 58" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId58"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>60</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="59" name="Image 59" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId59"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>61</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="60" name="Image 60" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId60"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>62</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="61" name="Image 61" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId61"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>63</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="62" name="Image 62" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId62"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>64</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="533400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="63" name="Image 63" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId63"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>65</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="876300"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="64" name="Image 64" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId64"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>66</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="828675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="65" name="Image 65" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId65"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>67</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="933450"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="66" name="Image 66" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId66"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>68</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1028700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="67" name="Image 67" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId67"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>69</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="266700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="68" name="Image 68" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId68"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>70</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="333375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="69" name="Image 69" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId69"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>71</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="847725"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="70" name="Image 70" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId70"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>72</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1000125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="71" name="Image 71" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId71"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>73</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="704850"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="72" name="Image 72" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId72"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="73" name="Image 73" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId73"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>75</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="74" name="Image 74" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId74"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>76</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="75" name="Image 75" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId75"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>77</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="76" name="Image 76" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId76"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>78</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="504825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="77" name="Image 77" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId77"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>79</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="542925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="78" name="Image 78" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId78"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>80</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="914400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="79" name="Image 79" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId79"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>81</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1333500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="80" name="Image 80" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId80"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>82</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1314450"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="81" name="Image 81" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId81"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>83</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1590675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="82" name="Image 82" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId82"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>84</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1695450"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="83" name="Image 83" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId83"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>85</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="485775"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="84" name="Image 84" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId84"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>86</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1028700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="85" name="Image 85" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId85"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>87</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="86" name="Image 86" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId86"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>88</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="266700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="87" name="Image 87" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId87"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>89</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="790575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="88" name="Image 88" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId88"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>90</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="419100"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="89" name="Image 89" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId89"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>91</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="90" name="Image 90" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId90"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>92</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="91" name="Image 91" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId91"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>93</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="800100"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="92" name="Image 92" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId92"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>94</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="93" name="Image 93" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId93"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>95</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="962025"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="94" name="Image 94" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId94"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>96</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="647700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="95" name="Image 95" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId95"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>97</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="704850"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="96" name="Image 96" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId96"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>98</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="523875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="97" name="Image 97" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId97"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>99</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="962025"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="98" name="Image 98" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId98"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>100</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="638175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="99" name="Image 99" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId99"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>101</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="876300"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="100" name="Image 100" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId100"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>102</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="685800"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="101" name="Image 101" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId101"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>103</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="504825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="102" name="Image 102" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId102"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="103" name="Image 103" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId103"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>105</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="723900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="104" name="Image 104" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId104"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>106</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="638175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="105" name="Image 105" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId105"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>107</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="438150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="106" name="Image 106" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId106"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>108</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="447675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="107" name="Image 107" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId107"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>109</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="108" name="Image 108" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId108"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>110</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1200150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="109" name="Image 109" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId109"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>111</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="85725"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="110" name="Image 110" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId110"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>112</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="657225"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="111" name="Image 111" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId111"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>113</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="752475"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="112" name="Image 112" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId112"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>114</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="523875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="113" name="Image 113" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId113"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>115</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="609600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="114" name="Image 114" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId114"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>116</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="619125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="115" name="Image 115" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId115"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>117</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="171450"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="116" name="Image 116" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId116"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>118</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1019175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="117" name="Image 117" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId117"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>119</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="809625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="118" name="Image 118" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId118"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>120</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="257175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="119" name="Image 119" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId119"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>121</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="495300"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="120" name="Image 120" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId120"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>122</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="457200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="121" name="Image 121" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId121"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>123</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="122" name="Image 122" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId122"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>124</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="123" name="Image 123" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId123"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>125</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="266700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="124" name="Image 124" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId124"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>126</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="125" name="Image 125" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId125"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>127</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="126" name="Image 126" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId126"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>128</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="127" name="Image 127" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId127"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>129</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="128" name="Image 128" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId128"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>130</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="485775"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="129" name="Image 129" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId129"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>131</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="504825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="130" name="Image 130" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId130"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>132</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="361950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="131" name="Image 131" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId131"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>133</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="132" name="Image 132" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId132"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>134</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="133" name="Image 133" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId133"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>135</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="134" name="Image 134" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId134"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>136</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="135" name="Image 135" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId135"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>137</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="136" name="Image 136" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId136"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>138</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="137" name="Image 137" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId137"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>139</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="138" name="Image 138" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId138"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>140</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="139" name="Image 139" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId139"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>141</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="140" name="Image 140" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId140"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>142</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="141" name="Image 141" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId141"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>143</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="142" name="Image 142" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId142"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>144</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="143" name="Image 143" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId143"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>145</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="144" name="Image 144" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId144"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>146</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="145" name="Image 145" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId145"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>147</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="485775"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="146" name="Image 146" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId146"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>148</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="147" name="Image 147" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId147"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>149</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="771525"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="148" name="Image 148" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId148"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>150</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="400050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="149" name="Image 149" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId149"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>151</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="495300"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="150" name="Image 150" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId150"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>152</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="151" name="Image 151" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId151"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>153</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="876300"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="152" name="Image 152" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId152"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>154</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="619125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="153" name="Image 153" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId153"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>155</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="314325"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="154" name="Image 154" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId154"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>156</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1047750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="155" name="Image 155" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId155"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>157</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="923925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="156" name="Image 156" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId156"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>158</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="828675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="157" name="Image 157" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId157"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>159</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1428750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="158" name="Image 158" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId158"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>160</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="981075"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="159" name="Image 159" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId159"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>161</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="209550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="160" name="Image 160" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId160"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>162</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="619125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="161" name="Image 161" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId161"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>163</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="723900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="162" name="Image 162" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId162"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>164</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="504825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="163" name="Image 163" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId163"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>165</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="304800"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="164" name="Image 164" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId164"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>166</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="323850"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="165" name="Image 165" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId165"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>167</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1028700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="166" name="Image 166" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId166"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>168</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="514350"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="167" name="Image 167" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId167"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>169</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="533400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="168" name="Image 168" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId168"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>170</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="169" name="Image 169" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId169"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>171</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="533400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="170" name="Image 170" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId170"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>172</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="542925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="171" name="Image 171" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId171"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>173</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="581025"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="172" name="Image 172" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId172"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>174</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="581025"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="173" name="Image 173" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId173"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>175</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="866775"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="174" name="Image 174" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId174"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>176</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="152400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="175" name="Image 175" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId175"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>177</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="542925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="176" name="Image 176" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId176"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>178</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="523875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="177" name="Image 177" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId177"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>179</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="523875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="178" name="Image 178" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId178"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>180</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="523875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="179" name="Image 179" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId179"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>181</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="533400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="180" name="Image 180" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId180"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>182</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1257300"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="181" name="Image 181" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId181"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>183</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="581025"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="182" name="Image 182" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId182"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>184</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="561975"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="183" name="Image 183" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId183"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>185</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="180975"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="184" name="Image 184" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId184"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>186</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="180975"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="185" name="Image 185" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId185"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>187</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="186" name="Image 186" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId186"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>188</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="838200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="187" name="Image 187" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId187"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>189</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="695325"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="188" name="Image 188" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId188"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>190</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="189" name="Image 189" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId189"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>191</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="752475"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="190" name="Image 190" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId190"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>192</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="561975"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="191" name="Image 191" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId191"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>193</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="523875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="192" name="Image 192" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId192"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>194</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1095375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="193" name="Image 193" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId193"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>195</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="257175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="194" name="Image 194" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId194"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>196</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="195" name="Image 195" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId195"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>197</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="266700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="196" name="Image 196" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId196"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>198</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="428625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="197" name="Image 197" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId197"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>199</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="428625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="198" name="Image 198" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId198"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>200</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="400050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="199" name="Image 199" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId199"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>201</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="609600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="200" name="Image 200" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId200"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>202</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="790575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="201" name="Image 201" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId201"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>203</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="495300"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="202" name="Image 202" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId202"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>204</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="219075"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="203" name="Image 203" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId203"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>205</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="204" name="Image 204" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId204"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>206</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="219075"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="205" name="Image 205" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId205"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>207</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="219075"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="206" name="Image 206" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId206"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>208</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="485775"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="207" name="Image 207" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId207"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>209</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="514350"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="208" name="Image 208" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId208"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>210</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="209" name="Image 209" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId209"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>211</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="210" name="Image 210" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId210"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>212</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1181100"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="211" name="Image 211" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId211"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>213</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1171575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="212" name="Image 212" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId212"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>214</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1171575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="213" name="Image 213" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId213"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>215</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1181100"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="214" name="Image 214" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId214"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>216</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1181100"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="215" name="Image 215" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId215"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>217</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1181100"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="216" name="Image 216" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId216"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>218</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1171575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="217" name="Image 217" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId217"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>219</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1019175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="218" name="Image 218" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId218"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>220</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1619250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="219" name="Image 219" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId219"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>221</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="220" name="Image 220" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId220"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>222</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="514350"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="221" name="Image 221" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId221"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>223</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="222" name="Image 222" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId222"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>224</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="223" name="Image 223" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId223"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>225</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="224" name="Image 224" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId224"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>226</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="225" name="Image 225" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId225"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>227</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="226" name="Image 226" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId226"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>228</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1181100"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="227" name="Image 227" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId227"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>229</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="228" name="Image 228" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId228"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>230</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="229" name="Image 229" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId229"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>231</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="230" name="Image 230" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId230"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>232</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="231" name="Image 231" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId231"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>233</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="885825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="232" name="Image 232" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId232"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>234</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="2038350"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="233" name="Image 233" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId233"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>235</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="234" name="Image 234" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId234"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>236</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="235" name="Image 235" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId235"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>237</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="236" name="Image 236" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId236"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>238</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="237" name="Image 237" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId237"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>239</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="533400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="238" name="Image 238" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId238"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>240</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="533400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="239" name="Image 239" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId239"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>241</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="533400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="240" name="Image 240" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId240"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>242</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="561975"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="241" name="Image 241" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId241"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>243</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="390525"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="242" name="Image 242" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId242"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>244</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="371475"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="243" name="Image 243" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId243"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>245</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="244" name="Image 244" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId244"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>246</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="245" name="Image 245" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId245"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>247</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="246" name="Image 246" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId246"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>248</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="238125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="247" name="Image 247" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId247"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>249</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="695325"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="248" name="Image 248" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId248"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>250</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="790575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="249" name="Image 249" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId249"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>251</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="781050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="250" name="Image 250" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId250"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>252</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="857250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="251" name="Image 251" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId251"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>253</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="752475"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="252" name="Image 252" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId252"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>254</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="923925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="253" name="Image 253" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId253"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>255</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="904875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="254" name="Image 254" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId254"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>256</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="581025"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="255" name="Image 255" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId255"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>257</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="533400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="256" name="Image 256" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId256"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>258</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1162050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="257" name="Image 257" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId257"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>259</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1162050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="258" name="Image 258" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId258"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>260</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1181100"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="259" name="Image 259" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId259"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>261</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1162050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="260" name="Image 260" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId260"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>262</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1162050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="261" name="Image 261" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId261"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>263</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1162050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="262" name="Image 262" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId262"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>264</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1171575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="263" name="Image 263" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId263"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>265</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1162050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="264" name="Image 264" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId264"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>266</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1162050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="265" name="Image 265" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId265"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>267</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1171575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="266" name="Image 266" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId266"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>268</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1171575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="267" name="Image 267" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId267"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>269</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="485775"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="268" name="Image 268" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId268"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>270</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="295275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="269" name="Image 269" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId269"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>271</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1019175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="270" name="Image 270" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId270"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>272</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1009650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="271" name="Image 271" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId271"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>273</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1009650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="272" name="Image 272" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId272"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>274</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1009650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="273" name="Image 273" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId273"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>275</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1019175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="274" name="Image 274" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId274"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>276</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1019175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="275" name="Image 275" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId275"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>277</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1028700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="276" name="Image 276" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId276"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>278</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1019175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="277" name="Image 277" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId277"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>279</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1019175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="278" name="Image 278" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId278"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>280</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1009650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="279" name="Image 279" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId279"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>281</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="942975"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="280" name="Image 280" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId280"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>282</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="885825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="281" name="Image 281" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId281"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>283</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="282" name="Image 282" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId282"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>284</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="542925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="283" name="Image 283" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId283"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>285</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="523875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="284" name="Image 284" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId284"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>286</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="285" name="Image 285" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId285"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>287</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="533400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="286" name="Image 286" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId286"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>288</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="533400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="287" name="Image 287" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId287"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>289</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="533400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="288" name="Image 288" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId288"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>290</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="523875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="289" name="Image 289" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId289"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>291</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="542925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="290" name="Image 290" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId290"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>292</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="409575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="291" name="Image 291" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId291"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>293</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="438150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="292" name="Image 292" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId292"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>294</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="495300"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="293" name="Image 293" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId293"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>295</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="457200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="294" name="Image 294" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId294"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>296</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="533400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="295" name="Image 295" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId295"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>297</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="495300"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="296" name="Image 296" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId296"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>298</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="495300"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="297" name="Image 297" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId297"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>299</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="409575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="298" name="Image 298" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId298"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>300</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="533400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="299" name="Image 299" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId299"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>301</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="533400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="300" name="Image 300" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId300"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>302</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="409575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="301" name="Image 301" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId301"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>303</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="504825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="302" name="Image 302" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId302"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>304</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="466725"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="303" name="Image 303" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId303"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>305</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="466725"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="304" name="Image 304" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId304"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>306</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="514350"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="305" name="Image 305" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId305"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>307</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="638175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="306" name="Image 306" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId306"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>308</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1114425"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="307" name="Image 307" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId307"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>309</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1123950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="308" name="Image 308" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId308"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>310</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1104900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="309" name="Image 309" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId309"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>311</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="695325"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="310" name="Image 310" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId310"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>312</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="685800"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="311" name="Image 311" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId311"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>313</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="685800"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="312" name="Image 312" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId312"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>314</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="657225"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="313" name="Image 313" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId313"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>315</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="628650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="314" name="Image 314" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId314"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>316</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="600075"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="315" name="Image 315" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId315"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>317</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="609600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="316" name="Image 316" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId316"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>318</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="657225"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="317" name="Image 317" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId317"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>319</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="318" name="Image 318" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId318"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>320</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="752475"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="319" name="Image 319" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId319"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>321</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="647700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="320" name="Image 320" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId320"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>322</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="542925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="321" name="Image 321" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId321"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>323</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="322" name="Image 322" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId322"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>324</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="790575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="323" name="Image 323" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId323"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>325</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="495300"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="324" name="Image 324" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId324"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>326</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="504825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="325" name="Image 325" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId325"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>327</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1028700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="326" name="Image 326" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId326"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>328</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="327" name="Image 327" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId327"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>329</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="328" name="Image 328" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId328"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>330</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="542925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="329" name="Image 329" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId329"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>331</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="330" name="Image 330" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId330"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>332</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="331" name="Image 331" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId331"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>333</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="332" name="Image 332" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId332"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>334</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="638175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="333" name="Image 333" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId333"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>335</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="334" name="Image 334" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId334"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>336</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="335" name="Image 335" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId335"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>337</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="990600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="336" name="Image 336" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId336"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>338</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="866775"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="337" name="Image 337" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId337"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>339</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1171575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="338" name="Image 338" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId338"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>340</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="339" name="Image 339" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId339"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>341</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="628650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="340" name="Image 340" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId340"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>342</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="341" name="Image 341" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId341"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>343</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="342" name="Image 342" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId342"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>344</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="343" name="Image 343" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId343"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>345</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="344" name="Image 344" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId344"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>346</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="345" name="Image 345" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId345"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>347</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1362075"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="346" name="Image 346" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId346"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>348</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="619125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="347" name="Image 347" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId347"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>349</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="348" name="Image 348" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId348"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>350</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1152525"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="349" name="Image 349" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId349"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -449,7 +9149,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
@@ -485,7 +9185,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="52" customHeight="1">
+    <row r="3" ht="121" customHeight="1">
       <c r="B3" t="inlineStr">
         <is>
           <t>2025-02-07 144957 switch_before_go.png</t>

--- a/filelist.xlsx
+++ b/filelist.xlsx
@@ -9164,7 +9164,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>2025-07-16 11:04AM</t>
+          <t>2025 October 29 @03:29PM</t>
         </is>
       </c>
     </row>
@@ -9185,7 +9185,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="121" customHeight="1">
+    <row r="3" ht="39" customHeight="1">
       <c r="B3" t="inlineStr">
         <is>
           <t>2025-02-07 144957 switch_before_go.png</t>
@@ -9197,7 +9197,7 @@
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="41.25" customHeight="1">
       <c r="B4" t="inlineStr">
         <is>
           <t>cse100_lab4_BothPlayers_LOSE.png</t>
@@ -9209,7 +9209,7 @@
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="41.25" customHeight="1">
       <c r="B5" t="inlineStr">
         <is>
           <t>cse100_lab4_BothPlayers_WIN.png</t>
@@ -9221,7 +9221,7 @@
         </is>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="42.75" customHeight="1">
       <c r="B6" t="inlineStr">
         <is>
           <t>cse100_lab4_PlayerA_wins.png</t>
@@ -9233,7 +9233,7 @@
         </is>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="41.25" customHeight="1">
       <c r="B7" t="inlineStr">
         <is>
           <t>cse100_lab4_PlayerB_wins.png</t>
@@ -9245,7 +9245,7 @@
         </is>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="42.75" customHeight="1">
       <c r="B8" t="inlineStr">
         <is>
           <t>CSE100_Statemachine_question 2025-02-02 1050.png</t>
@@ -9257,7 +9257,7 @@
         </is>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="58.5" customHeight="1">
       <c r="B9" t="inlineStr">
         <is>
           <t>CSE100_Statemachine_schematic.png</t>
@@ -9269,7 +9269,7 @@
         </is>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="81" customHeight="1">
       <c r="B10" t="inlineStr">
         <is>
           <t>CSE3_SCRATCHgame 2025-07-23 224218.png</t>
@@ -9281,7 +9281,7 @@
         </is>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="36" customHeight="1">
       <c r="B11" t="inlineStr">
         <is>
           <t>ECE118_20250403_1232.png</t>
@@ -9293,7 +9293,7 @@
         </is>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="28.5" customHeight="1">
       <c r="B12" t="inlineStr">
         <is>
           <t>ECE118_20250403_1246.png</t>
@@ -9305,7 +9305,7 @@
         </is>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="33" customHeight="1">
       <c r="B13" t="inlineStr">
         <is>
           <t>ECE118_20250403_1315.png</t>
@@ -9317,7 +9317,7 @@
         </is>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="48" customHeight="1">
       <c r="B14" t="inlineStr">
         <is>
           <t>IMG_0639.PNG</t>
@@ -9329,7 +9329,7 @@
         </is>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="40.5" customHeight="1">
       <c r="B15" t="inlineStr">
         <is>
           <t>IMG_20250301_111833072.png</t>
@@ -9341,7 +9341,7 @@
         </is>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="96.75" customHeight="1">
       <c r="B16" t="inlineStr">
         <is>
           <t>Lab2_CAD-drawing_20250511.png</t>
@@ -9353,7 +9353,7 @@
         </is>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="36" customHeight="1">
       <c r="B17" t="inlineStr">
         <is>
           <t>Schematic_countUD8L.png</t>
@@ -9365,7 +9365,7 @@
         </is>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="94.5" customHeight="1">
       <c r="B18" t="inlineStr">
         <is>
           <t>Schematic_LFSR.png</t>
@@ -9377,7 +9377,7 @@
         </is>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="23.25" customHeight="1">
       <c r="B19" t="inlineStr">
         <is>
           <t>Schematic_StateMachine4.png</t>
@@ -9389,7 +9389,7 @@
         </is>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="38.25" customHeight="1">
       <c r="B20" t="inlineStr">
         <is>
           <t>Schematic_TopLevel4.png</t>
@@ -9401,7 +9401,7 @@
         </is>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="46.5" customHeight="1">
       <c r="B21" t="inlineStr">
         <is>
           <t>Screenshot 2024-02-13 162201.png</t>
@@ -9413,7 +9413,7 @@
         </is>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="46.5" customHeight="1">
       <c r="B22" t="inlineStr">
         <is>
           <t>Screenshot 2024-04-10 115750.png</t>
@@ -9425,7 +9425,7 @@
         </is>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="43.5" customHeight="1">
       <c r="B23" t="inlineStr">
         <is>
           <t>Screenshot 2024-05-05 181752.png</t>
@@ -9437,7 +9437,7 @@
         </is>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="34.5" customHeight="1">
       <c r="B24" t="inlineStr">
         <is>
           <t>Screenshot 2024-05-05 230541.png</t>
@@ -9449,7 +9449,7 @@
         </is>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="46.5" customHeight="1">
       <c r="B25" t="inlineStr">
         <is>
           <t>Screenshot 2024-05-06 212020.png</t>
@@ -9461,7 +9461,7 @@
         </is>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="65.25" customHeight="1">
       <c r="B26" t="inlineStr">
         <is>
           <t>Screenshot 2024-05-08 182509.png</t>
@@ -9473,7 +9473,7 @@
         </is>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="192.75" customHeight="1">
       <c r="B27" t="inlineStr">
         <is>
           <t>Screenshot 2024-05-11 003639.png</t>
@@ -9485,7 +9485,7 @@
         </is>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="62.25" customHeight="1">
       <c r="B28" t="inlineStr">
         <is>
           <t>Screenshot 2024-05-15 004329.png</t>
@@ -9497,7 +9497,7 @@
         </is>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="61.5" customHeight="1">
       <c r="B29" t="inlineStr">
         <is>
           <t>Screenshot 2024-05-15 004558.png</t>
@@ -9509,7 +9509,7 @@
         </is>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="69" customHeight="1">
       <c r="B30" t="inlineStr">
         <is>
           <t>Screenshot 2024-05-15 004709.png</t>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="69" customHeight="1">
       <c r="B31" t="inlineStr">
         <is>
           <t>Screenshot 2024-05-15 005454.png</t>
@@ -9533,7 +9533,7 @@
         </is>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="43.5" customHeight="1">
       <c r="B32" t="inlineStr">
         <is>
           <t>Screenshot 2024-05-16 200955.png</t>
@@ -9545,7 +9545,7 @@
         </is>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="46.5" customHeight="1">
       <c r="B33" t="inlineStr">
         <is>
           <t>Screenshot 2024-05-16 204900.png</t>
@@ -9557,7 +9557,7 @@
         </is>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="35.25" customHeight="1">
       <c r="B34" t="inlineStr">
         <is>
           <t>Screenshot 2024-05-19 125316.png</t>
@@ -9569,7 +9569,7 @@
         </is>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="50.25" customHeight="1">
       <c r="B35" t="inlineStr">
         <is>
           <t>Screenshot 2024-05-20 163605.png</t>
@@ -9581,7 +9581,7 @@
         </is>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="46.5" customHeight="1">
       <c r="B36" t="inlineStr">
         <is>
           <t>Screenshot 2024-05-20 214348.png</t>
@@ -9593,7 +9593,7 @@
         </is>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="42" customHeight="1">
       <c r="B37" t="inlineStr">
         <is>
           <t>Screenshot 2024-05-21 174330.png</t>
@@ -9605,7 +9605,7 @@
         </is>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="15" customHeight="1">
       <c r="B38" t="inlineStr">
         <is>
           <t>Screenshot 2024-06-06 133307.png</t>
@@ -9617,7 +9617,7 @@
         </is>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="15" customHeight="1">
       <c r="B39" t="inlineStr">
         <is>
           <t>Screenshot 2024-06-06 133440.png</t>
@@ -9629,7 +9629,7 @@
         </is>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="46.5" customHeight="1">
       <c r="B40" t="inlineStr">
         <is>
           <t>Screenshot 2024-06-06 145654.png</t>
@@ -9641,7 +9641,7 @@
         </is>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="44.25" customHeight="1">
       <c r="B41" t="inlineStr">
         <is>
           <t>Screenshot 2024-06-06 145713.png</t>
@@ -9653,7 +9653,7 @@
         </is>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="46.5" customHeight="1">
       <c r="B42" t="inlineStr">
         <is>
           <t>Screenshot 2024-06-06 145822.png</t>
@@ -9665,7 +9665,7 @@
         </is>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="44.25" customHeight="1">
       <c r="B43" t="inlineStr">
         <is>
           <t>Screenshot 2024-06-06 145840.png</t>
@@ -9677,7 +9677,7 @@
         </is>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="46.5" customHeight="1">
       <c r="B44" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-21 172754.png</t>
@@ -9689,7 +9689,7 @@
         </is>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="46.5" customHeight="1">
       <c r="B45" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-21 173050.png</t>
@@ -9701,7 +9701,7 @@
         </is>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="46.5" customHeight="1">
       <c r="B46" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-21 173442.png</t>
@@ -9713,7 +9713,7 @@
         </is>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="46.5" customHeight="1">
       <c r="B47" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-21 173452.png</t>
@@ -9725,7 +9725,7 @@
         </is>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="46.5" customHeight="1">
       <c r="B48" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-21 173609.png</t>
@@ -9737,7 +9737,7 @@
         </is>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="46.5" customHeight="1">
       <c r="B49" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-21 173648.png</t>
@@ -9749,7 +9749,7 @@
         </is>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="46.5" customHeight="1">
       <c r="B50" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-21 173948.png</t>
@@ -9761,7 +9761,7 @@
         </is>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="46.5" customHeight="1">
       <c r="B51" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-21 174301.png</t>
@@ -9773,7 +9773,7 @@
         </is>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="46.5" customHeight="1">
       <c r="B52" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-21 174609.png</t>
@@ -9785,7 +9785,7 @@
         </is>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="46.5" customHeight="1">
       <c r="B53" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-21 175019.png</t>
@@ -9797,7 +9797,7 @@
         </is>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="46.5" customHeight="1">
       <c r="B54" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-21 175131.png</t>
@@ -9809,7 +9809,7 @@
         </is>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="46.5" customHeight="1">
       <c r="B55" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-21 175330.png</t>
@@ -9821,7 +9821,7 @@
         </is>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="46.5" customHeight="1">
       <c r="B56" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-21 175424.png</t>
@@ -9833,7 +9833,7 @@
         </is>
       </c>
     </row>
-    <row r="57">
+    <row r="57" ht="46.5" customHeight="1">
       <c r="B57" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-21 175531.png</t>
@@ -9845,7 +9845,7 @@
         </is>
       </c>
     </row>
-    <row r="58">
+    <row r="58" ht="46.5" customHeight="1">
       <c r="B58" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-21 175601.png</t>
@@ -9857,7 +9857,7 @@
         </is>
       </c>
     </row>
-    <row r="59">
+    <row r="59" ht="46.5" customHeight="1">
       <c r="B59" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-21 175650.png</t>
@@ -9869,7 +9869,7 @@
         </is>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="46.5" customHeight="1">
       <c r="B60" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-21 175719.png</t>
@@ -9881,7 +9881,7 @@
         </is>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="46.5" customHeight="1">
       <c r="B61" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-21 183259.png</t>
@@ -9893,7 +9893,7 @@
         </is>
       </c>
     </row>
-    <row r="62">
+    <row r="62" ht="46.5" customHeight="1">
       <c r="B62" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-21 183312.png</t>
@@ -9905,7 +9905,7 @@
         </is>
       </c>
     </row>
-    <row r="63">
+    <row r="63" ht="46.5" customHeight="1">
       <c r="B63" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-21 183357.png</t>
@@ -9917,7 +9917,7 @@
         </is>
       </c>
     </row>
-    <row r="64">
+    <row r="64" ht="46.5" customHeight="1">
       <c r="B64" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-23 120733.png</t>
@@ -9929,7 +9929,7 @@
         </is>
       </c>
     </row>
-    <row r="65">
+    <row r="65" ht="42" customHeight="1">
       <c r="B65" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-23 120856.png</t>
@@ -9941,7 +9941,7 @@
         </is>
       </c>
     </row>
-    <row r="66">
+    <row r="66" ht="69" customHeight="1">
       <c r="B66" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-23 121045.png</t>
@@ -9953,7 +9953,7 @@
         </is>
       </c>
     </row>
-    <row r="67">
+    <row r="67" ht="65.25" customHeight="1">
       <c r="B67" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-23 121751.png</t>
@@ -9965,7 +9965,7 @@
         </is>
       </c>
     </row>
-    <row r="68">
+    <row r="68" ht="73.5" customHeight="1">
       <c r="B68" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-23 121837.png</t>
@@ -9977,7 +9977,7 @@
         </is>
       </c>
     </row>
-    <row r="69">
+    <row r="69" ht="81" customHeight="1">
       <c r="B69" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-23 153432.png</t>
@@ -9989,7 +9989,7 @@
         </is>
       </c>
     </row>
-    <row r="70">
+    <row r="70" ht="21" customHeight="1">
       <c r="B70" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-23 153506.png</t>
@@ -10001,7 +10001,7 @@
         </is>
       </c>
     </row>
-    <row r="71">
+    <row r="71" ht="26.25" customHeight="1">
       <c r="B71" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-23 153608.png</t>
@@ -10013,7 +10013,7 @@
         </is>
       </c>
     </row>
-    <row r="72">
+    <row r="72" ht="66.75" customHeight="1">
       <c r="B72" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-23 154559.png</t>
@@ -10025,7 +10025,7 @@
         </is>
       </c>
     </row>
-    <row r="73">
+    <row r="73" ht="78.75" customHeight="1">
       <c r="B73" t="inlineStr">
         <is>
           <t>Screenshot 2024-08-23 155425.png</t>
@@ -10037,7 +10037,7 @@
         </is>
       </c>
     </row>
-    <row r="74">
+    <row r="74" ht="55.5" customHeight="1">
       <c r="B74" t="inlineStr">
         <is>
           <t>Screenshot 2024-09-20 091542.png</t>
@@ -10049,7 +10049,7 @@
         </is>
       </c>
     </row>
-    <row r="75">
+    <row r="75" ht="46.5" customHeight="1">
       <c r="B75" t="inlineStr">
         <is>
           <t>Screenshot 2024-09-22 114109.png</t>
@@ -10061,7 +10061,7 @@
         </is>
       </c>
     </row>
-    <row r="76">
+    <row r="76" ht="46.5" customHeight="1">
       <c r="B76" t="inlineStr">
         <is>
           <t>Screenshot 2024-09-22 142408.png</t>
@@ -10073,7 +10073,7 @@
         </is>
       </c>
     </row>
-    <row r="77">
+    <row r="77" ht="46.5" customHeight="1">
       <c r="B77" t="inlineStr">
         <is>
           <t>Screenshot 2024-09-22 145507.png</t>
@@ -10085,7 +10085,7 @@
         </is>
       </c>
     </row>
-    <row r="78">
+    <row r="78" ht="46.5" customHeight="1">
       <c r="B78" t="inlineStr">
         <is>
           <t>Screenshot 2024-09-26 220350.png</t>
@@ -10097,7 +10097,7 @@
         </is>
       </c>
     </row>
-    <row r="79">
+    <row r="79" ht="39.75" customHeight="1">
       <c r="B79" t="inlineStr">
         <is>
           <t>Screenshot 2024-10-03 135514.png</t>
@@ -10109,7 +10109,7 @@
         </is>
       </c>
     </row>
-    <row r="80">
+    <row r="80" ht="42.75" customHeight="1">
       <c r="B80" t="inlineStr">
         <is>
           <t>Screenshot 2024-10-04 023958.png</t>
@@ -10121,7 +10121,7 @@
         </is>
       </c>
     </row>
-    <row r="81">
+    <row r="81" ht="72" customHeight="1">
       <c r="B81" t="inlineStr">
         <is>
           <t>Screenshot 2024-10-04 115639.png</t>
@@ -10133,7 +10133,7 @@
         </is>
       </c>
     </row>
-    <row r="82">
+    <row r="82" ht="105" customHeight="1">
       <c r="B82" t="inlineStr">
         <is>
           <t>Screenshot 2024-10-04 211319.png</t>
@@ -10145,7 +10145,7 @@
         </is>
       </c>
     </row>
-    <row r="83">
+    <row r="83" ht="103.5" customHeight="1">
       <c r="B83" t="inlineStr">
         <is>
           <t>Screenshot 2024-10-04 212457.png</t>
@@ -10157,7 +10157,7 @@
         </is>
       </c>
     </row>
-    <row r="84">
+    <row r="84" ht="125.25" customHeight="1">
       <c r="B84" t="inlineStr">
         <is>
           <t>Screenshot 2024-10-04 222748.png</t>
@@ -10169,7 +10169,7 @@
         </is>
       </c>
     </row>
-    <row r="85">
+    <row r="85" ht="133.5" customHeight="1">
       <c r="B85" t="inlineStr">
         <is>
           <t>Screenshot 2024-10-04 224728.png</t>
@@ -10181,7 +10181,7 @@
         </is>
       </c>
     </row>
-    <row r="86">
+    <row r="86" ht="38.25" customHeight="1">
       <c r="B86" t="inlineStr">
         <is>
           <t>Screenshot 2024-10-06 163417.png</t>
@@ -10193,7 +10193,7 @@
         </is>
       </c>
     </row>
-    <row r="87">
+    <row r="87" ht="81" customHeight="1">
       <c r="B87" t="inlineStr">
         <is>
           <t>Screenshot 2024-10-14 105051.png</t>
@@ -10205,7 +10205,7 @@
         </is>
       </c>
     </row>
-    <row r="88">
+    <row r="88" ht="45" customHeight="1">
       <c r="B88" t="inlineStr">
         <is>
           <t>Screenshot 2024-10-15 141604.png</t>
@@ -10217,7 +10217,7 @@
         </is>
       </c>
     </row>
-    <row r="89">
+    <row r="89" ht="21" customHeight="1">
       <c r="B89" t="inlineStr">
         <is>
           <t>Screenshot 2024-10-24 123911.png</t>
@@ -10229,7 +10229,7 @@
         </is>
       </c>
     </row>
-    <row r="90">
+    <row r="90" ht="62.25" customHeight="1">
       <c r="B90" t="inlineStr">
         <is>
           <t>Screenshot 2024-10-24 223327.png</t>
@@ -10241,7 +10241,7 @@
         </is>
       </c>
     </row>
-    <row r="91">
+    <row r="91" ht="33" customHeight="1">
       <c r="B91" t="inlineStr">
         <is>
           <t>Screenshot 2024-10-25 170451.png</t>
@@ -10253,7 +10253,7 @@
         </is>
       </c>
     </row>
-    <row r="92">
+    <row r="92" ht="46.5" customHeight="1">
       <c r="B92" t="inlineStr">
         <is>
           <t>Screenshot 2024-10-26 220604.png</t>
@@ -10265,7 +10265,7 @@
         </is>
       </c>
     </row>
-    <row r="93">
+    <row r="93" ht="46.5" customHeight="1">
       <c r="B93" t="inlineStr">
         <is>
           <t>Screenshot 2024-10-26 220800.png</t>
@@ -10277,7 +10277,7 @@
         </is>
       </c>
     </row>
-    <row r="94">
+    <row r="94" ht="63" customHeight="1">
       <c r="B94" t="inlineStr">
         <is>
           <t>Screenshot 2024-10-27 194648.png</t>
@@ -10289,7 +10289,7 @@
         </is>
       </c>
     </row>
-    <row r="95">
+    <row r="95" ht="90" customHeight="1">
       <c r="B95" t="inlineStr">
         <is>
           <t>Screenshot 2024-10-27 194741.png</t>
@@ -10301,7 +10301,7 @@
         </is>
       </c>
     </row>
-    <row r="96">
+    <row r="96" ht="75.75" customHeight="1">
       <c r="B96" t="inlineStr">
         <is>
           <t>Screenshot 2024-10-27 194822.png</t>
@@ -10313,7 +10313,7 @@
         </is>
       </c>
     </row>
-    <row r="97">
+    <row r="97" ht="51" customHeight="1">
       <c r="B97" t="inlineStr">
         <is>
           <t>Screenshot 2024-10-29 222129.png</t>
@@ -10325,7 +10325,7 @@
         </is>
       </c>
     </row>
-    <row r="98">
+    <row r="98" ht="55.5" customHeight="1">
       <c r="B98" t="inlineStr">
         <is>
           <t>Screenshot 2024-10-29 224435.png</t>
@@ -10337,7 +10337,7 @@
         </is>
       </c>
     </row>
-    <row r="99">
+    <row r="99" ht="41.25" customHeight="1">
       <c r="B99" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-03 123302.png</t>
@@ -10349,7 +10349,7 @@
         </is>
       </c>
     </row>
-    <row r="100">
+    <row r="100" ht="75.75" customHeight="1">
       <c r="B100" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-03 124348.png</t>
@@ -10361,7 +10361,7 @@
         </is>
       </c>
     </row>
-    <row r="101">
+    <row r="101" ht="50.25" customHeight="1">
       <c r="B101" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-03 124852.png</t>
@@ -10373,7 +10373,7 @@
         </is>
       </c>
     </row>
-    <row r="102">
+    <row r="102" ht="69" customHeight="1">
       <c r="B102" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-03 130607.png</t>
@@ -10385,7 +10385,7 @@
         </is>
       </c>
     </row>
-    <row r="103">
+    <row r="103" ht="54" customHeight="1">
       <c r="B103" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-03 131444.png</t>
@@ -10397,7 +10397,7 @@
         </is>
       </c>
     </row>
-    <row r="104">
+    <row r="104" ht="39.75" customHeight="1">
       <c r="B104" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-03 131828.png</t>
@@ -10409,7 +10409,7 @@
         </is>
       </c>
     </row>
-    <row r="105">
+    <row r="105" ht="45" customHeight="1">
       <c r="B105" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-03 154227.png</t>
@@ -10421,7 +10421,7 @@
         </is>
       </c>
     </row>
-    <row r="106">
+    <row r="106" ht="57" customHeight="1">
       <c r="B106" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-03 165110.png</t>
@@ -10433,7 +10433,7 @@
         </is>
       </c>
     </row>
-    <row r="107">
+    <row r="107" ht="50.25" customHeight="1">
       <c r="B107" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-03 170428.png</t>
@@ -10445,7 +10445,7 @@
         </is>
       </c>
     </row>
-    <row r="108">
+    <row r="108" ht="34.5" customHeight="1">
       <c r="B108" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-03 191934.png</t>
@@ -10457,7 +10457,7 @@
         </is>
       </c>
     </row>
-    <row r="109">
+    <row r="109" ht="35.25" customHeight="1">
       <c r="B109" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-03 192257.png</t>
@@ -10469,7 +10469,7 @@
         </is>
       </c>
     </row>
-    <row r="110">
+    <row r="110" ht="46.5" customHeight="1">
       <c r="B110" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-03 193111.png</t>
@@ -10481,7 +10481,7 @@
         </is>
       </c>
     </row>
-    <row r="111">
+    <row r="111" ht="94.5" customHeight="1">
       <c r="B111" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-03 193139.png</t>
@@ -10493,7 +10493,7 @@
         </is>
       </c>
     </row>
-    <row r="112">
+    <row r="112" ht="6.75" customHeight="1">
       <c r="B112" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-03 193537.png</t>
@@ -10505,7 +10505,7 @@
         </is>
       </c>
     </row>
-    <row r="113">
+    <row r="113" ht="51.75" customHeight="1">
       <c r="B113" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-04 152138.png</t>
@@ -10517,7 +10517,7 @@
         </is>
       </c>
     </row>
-    <row r="114">
+    <row r="114" ht="59.25" customHeight="1">
       <c r="B114" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-04 153823.png</t>
@@ -10529,7 +10529,7 @@
         </is>
       </c>
     </row>
-    <row r="115">
+    <row r="115" ht="41.25" customHeight="1">
       <c r="B115" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-04 155152.png</t>
@@ -10541,7 +10541,7 @@
         </is>
       </c>
     </row>
-    <row r="116">
+    <row r="116" ht="48" customHeight="1">
       <c r="B116" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-05 191357.png</t>
@@ -10553,7 +10553,7 @@
         </is>
       </c>
     </row>
-    <row r="117">
+    <row r="117" ht="48.75" customHeight="1">
       <c r="B117" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-05 191452.png</t>
@@ -10565,7 +10565,7 @@
         </is>
       </c>
     </row>
-    <row r="118">
+    <row r="118" ht="13.5" customHeight="1">
       <c r="B118" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-05 223636.png</t>
@@ -10577,7 +10577,7 @@
         </is>
       </c>
     </row>
-    <row r="119">
+    <row r="119" ht="80.25" customHeight="1">
       <c r="B119" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-06 011018.png</t>
@@ -10589,7 +10589,7 @@
         </is>
       </c>
     </row>
-    <row r="120">
+    <row r="120" ht="63.75" customHeight="1">
       <c r="B120" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-06 015530.png</t>
@@ -10601,7 +10601,7 @@
         </is>
       </c>
     </row>
-    <row r="121">
+    <row r="121" ht="20.25" customHeight="1">
       <c r="B121" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-10 015738.png</t>
@@ -10613,7 +10613,7 @@
         </is>
       </c>
     </row>
-    <row r="122">
+    <row r="122" ht="39" customHeight="1">
       <c r="B122" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-10 045303.png</t>
@@ -10625,7 +10625,7 @@
         </is>
       </c>
     </row>
-    <row r="123">
+    <row r="123" ht="36" customHeight="1">
       <c r="B123" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-10 045401.png</t>
@@ -10637,7 +10637,7 @@
         </is>
       </c>
     </row>
-    <row r="124">
+    <row r="124" ht="46.5" customHeight="1">
       <c r="B124" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-10 050351.png</t>
@@ -10649,7 +10649,7 @@
         </is>
       </c>
     </row>
-    <row r="125">
+    <row r="125" ht="46.5" customHeight="1">
       <c r="B125" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-10 050525.png</t>
@@ -10661,7 +10661,7 @@
         </is>
       </c>
     </row>
-    <row r="126">
+    <row r="126" ht="21" customHeight="1">
       <c r="B126" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-10 050615 - Copy.png</t>
@@ -10673,7 +10673,7 @@
         </is>
       </c>
     </row>
-    <row r="127">
+    <row r="127" ht="46.5" customHeight="1">
       <c r="B127" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-10 050615.png</t>
@@ -10685,7 +10685,7 @@
         </is>
       </c>
     </row>
-    <row r="128">
+    <row r="128" ht="46.5" customHeight="1">
       <c r="B128" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-10 221231.png</t>
@@ -10697,7 +10697,7 @@
         </is>
       </c>
     </row>
-    <row r="129">
+    <row r="129" ht="46.5" customHeight="1">
       <c r="B129" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-13 002332.png</t>
@@ -10709,7 +10709,7 @@
         </is>
       </c>
     </row>
-    <row r="130">
+    <row r="130" ht="46.5" customHeight="1">
       <c r="B130" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-15 005845.png</t>
@@ -10721,7 +10721,7 @@
         </is>
       </c>
     </row>
-    <row r="131">
+    <row r="131" ht="38.25" customHeight="1">
       <c r="B131" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-15 005912.png</t>
@@ -10733,7 +10733,7 @@
         </is>
       </c>
     </row>
-    <row r="132">
+    <row r="132" ht="39.75" customHeight="1">
       <c r="B132" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-15 164035.png</t>
@@ -10745,7 +10745,7 @@
         </is>
       </c>
     </row>
-    <row r="133">
+    <row r="133" ht="28.5" customHeight="1">
       <c r="B133" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-16 182546.png</t>
@@ -10757,7 +10757,7 @@
         </is>
       </c>
     </row>
-    <row r="134">
+    <row r="134" ht="46.5" customHeight="1">
       <c r="B134" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-16 225139.png</t>
@@ -10769,7 +10769,7 @@
         </is>
       </c>
     </row>
-    <row r="135">
+    <row r="135" ht="46.5" customHeight="1">
       <c r="B135" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-16 225306.png</t>
@@ -10781,7 +10781,7 @@
         </is>
       </c>
     </row>
-    <row r="136">
+    <row r="136" ht="46.5" customHeight="1">
       <c r="B136" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-16 230722.png</t>
@@ -10793,7 +10793,7 @@
         </is>
       </c>
     </row>
-    <row r="137">
+    <row r="137" ht="46.5" customHeight="1">
       <c r="B137" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-16 230841.png</t>
@@ -10805,7 +10805,7 @@
         </is>
       </c>
     </row>
-    <row r="138">
+    <row r="138" ht="46.5" customHeight="1">
       <c r="B138" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-16 230947.png</t>
@@ -10817,7 +10817,7 @@
         </is>
       </c>
     </row>
-    <row r="139">
+    <row r="139" ht="46.5" customHeight="1">
       <c r="B139" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-16 232103.png</t>
@@ -10829,7 +10829,7 @@
         </is>
       </c>
     </row>
-    <row r="140">
+    <row r="140" ht="46.5" customHeight="1">
       <c r="B140" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-16 232851.png</t>
@@ -10841,7 +10841,7 @@
         </is>
       </c>
     </row>
-    <row r="141">
+    <row r="141" ht="46.5" customHeight="1">
       <c r="B141" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-17 010536.png</t>
@@ -10853,7 +10853,7 @@
         </is>
       </c>
     </row>
-    <row r="142">
+    <row r="142" ht="46.5" customHeight="1">
       <c r="B142" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-17 014109.png</t>
@@ -10865,7 +10865,7 @@
         </is>
       </c>
     </row>
-    <row r="143">
+    <row r="143" ht="46.5" customHeight="1">
       <c r="B143" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-18 152149.png</t>
@@ -10877,7 +10877,7 @@
         </is>
       </c>
     </row>
-    <row r="144">
+    <row r="144" ht="46.5" customHeight="1">
       <c r="B144" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-18 154311.png</t>
@@ -10889,7 +10889,7 @@
         </is>
       </c>
     </row>
-    <row r="145">
+    <row r="145" ht="46.5" customHeight="1">
       <c r="B145" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-18 160328.png</t>
@@ -10901,7 +10901,7 @@
         </is>
       </c>
     </row>
-    <row r="146">
+    <row r="146" ht="46.5" customHeight="1">
       <c r="B146" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-18 164815.png</t>
@@ -10913,7 +10913,7 @@
         </is>
       </c>
     </row>
-    <row r="147">
+    <row r="147" ht="46.5" customHeight="1">
       <c r="B147" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-28 194603.png</t>
@@ -10925,7 +10925,7 @@
         </is>
       </c>
     </row>
-    <row r="148">
+    <row r="148" ht="38.25" customHeight="1">
       <c r="B148" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-28 194628.png</t>
@@ -10937,7 +10937,7 @@
         </is>
       </c>
     </row>
-    <row r="149">
+    <row r="149" ht="90" customHeight="1">
       <c r="B149" t="inlineStr">
         <is>
           <t>Screenshot 2024-11-30 173310.png</t>
@@ -10949,7 +10949,7 @@
         </is>
       </c>
     </row>
-    <row r="150">
+    <row r="150" ht="60.75" customHeight="1">
       <c r="B150" t="inlineStr">
         <is>
           <t>Screenshot 2024-12-06 160548.png</t>
@@ -10961,7 +10961,7 @@
         </is>
       </c>
     </row>
-    <row r="151">
+    <row r="151" ht="31.5" customHeight="1">
       <c r="B151" t="inlineStr">
         <is>
           <t>Screenshot 2024-12-13 122228.png</t>
@@ -10973,7 +10973,7 @@
         </is>
       </c>
     </row>
-    <row r="152">
+    <row r="152" ht="39" customHeight="1">
       <c r="B152" t="inlineStr">
         <is>
           <t>Screenshot 2024-12-13 132924.png</t>
@@ -10985,7 +10985,7 @@
         </is>
       </c>
     </row>
-    <row r="153">
+    <row r="153" ht="46.5" customHeight="1">
       <c r="B153" t="inlineStr">
         <is>
           <t>Screenshot 2024-12-13 142435.png</t>
@@ -10997,7 +10997,7 @@
         </is>
       </c>
     </row>
-    <row r="154">
+    <row r="154" ht="69" customHeight="1">
       <c r="B154" t="inlineStr">
         <is>
           <t>Screenshot 2024-12-13 142454.png</t>
@@ -11009,7 +11009,7 @@
         </is>
       </c>
     </row>
-    <row r="155">
+    <row r="155" ht="48.75" customHeight="1">
       <c r="B155" t="inlineStr">
         <is>
           <t>Screenshot 2024-12-13 145322.png</t>
@@ -11021,7 +11021,7 @@
         </is>
       </c>
     </row>
-    <row r="156">
+    <row r="156" ht="24.75" customHeight="1">
       <c r="B156" t="inlineStr">
         <is>
           <t>Screenshot 2024-12-13 153654.png</t>
@@ -11033,7 +11033,7 @@
         </is>
       </c>
     </row>
-    <row r="157">
+    <row r="157" ht="82.5" customHeight="1">
       <c r="B157" t="inlineStr">
         <is>
           <t>Screenshot 2024-12-13 155304.png</t>
@@ -11045,7 +11045,7 @@
         </is>
       </c>
     </row>
-    <row r="158">
+    <row r="158" ht="72.75" customHeight="1">
       <c r="B158" t="inlineStr">
         <is>
           <t>Screenshot 2024-12-19 212609.png</t>
@@ -11057,7 +11057,7 @@
         </is>
       </c>
     </row>
-    <row r="159">
+    <row r="159" ht="65.25" customHeight="1">
       <c r="B159" t="inlineStr">
         <is>
           <t>Screenshot 2024-12-30 121431.png</t>
@@ -11069,7 +11069,7 @@
         </is>
       </c>
     </row>
-    <row r="160">
+    <row r="160" ht="112.5" customHeight="1">
       <c r="B160" t="inlineStr">
         <is>
           <t>Screenshot 2024-12-31 105754.png</t>
@@ -11081,7 +11081,7 @@
         </is>
       </c>
     </row>
-    <row r="161">
+    <row r="161" ht="77.25" customHeight="1">
       <c r="B161" t="inlineStr">
         <is>
           <t>Screenshot 2024-12-31 105829.png</t>
@@ -11093,7 +11093,7 @@
         </is>
       </c>
     </row>
-    <row r="162">
+    <row r="162" ht="16.5" customHeight="1">
       <c r="B162" t="inlineStr">
         <is>
           <t>Screenshot 2024-12-31 171125.png</t>
@@ -11105,7 +11105,7 @@
         </is>
       </c>
     </row>
-    <row r="163">
+    <row r="163" ht="48.75" customHeight="1">
       <c r="B163" t="inlineStr">
         <is>
           <t>Screenshot 2025-01-04 204209.png</t>
@@ -11117,7 +11117,7 @@
         </is>
       </c>
     </row>
-    <row r="164">
+    <row r="164" ht="57" customHeight="1">
       <c r="B164" t="inlineStr">
         <is>
           <t>Screenshot 2025-01-06 130545.png</t>
@@ -11129,7 +11129,7 @@
         </is>
       </c>
     </row>
-    <row r="165">
+    <row r="165" ht="39.75" customHeight="1">
       <c r="B165" t="inlineStr">
         <is>
           <t>Screenshot 2025-01-08 104701.png</t>
@@ -11141,7 +11141,7 @@
         </is>
       </c>
     </row>
-    <row r="166">
+    <row r="166" ht="24" customHeight="1">
       <c r="B166" t="inlineStr">
         <is>
           <t>Screenshot 2025-01-09 193717.png</t>
@@ -11153,7 +11153,7 @@
         </is>
       </c>
     </row>
-    <row r="167">
+    <row r="167" ht="25.5" customHeight="1">
       <c r="B167" t="inlineStr">
         <is>
           <t>Screenshot 2025-01-10 103319.png</t>
@@ -11165,7 +11165,7 @@
         </is>
       </c>
     </row>
-    <row r="168">
+    <row r="168" ht="81" customHeight="1">
       <c r="B168" t="inlineStr">
         <is>
           <t>Screenshot 2025-01-13 092258.png</t>
@@ -11177,7 +11177,7 @@
         </is>
       </c>
     </row>
-    <row r="169">
+    <row r="169" ht="40.5" customHeight="1">
       <c r="B169" t="inlineStr">
         <is>
           <t>Screenshot 2025-01-14 191957.png</t>
@@ -11189,7 +11189,7 @@
         </is>
       </c>
     </row>
-    <row r="170">
+    <row r="170" ht="42" customHeight="1">
       <c r="B170" t="inlineStr">
         <is>
           <t>Screenshot 2025-01-25 1637221.png</t>
@@ -11201,7 +11201,7 @@
         </is>
       </c>
     </row>
-    <row r="171">
+    <row r="171" ht="46.5" customHeight="1">
       <c r="B171" t="inlineStr">
         <is>
           <t>Screenshot 2025-01-26 192143.png</t>
@@ -11213,7 +11213,7 @@
         </is>
       </c>
     </row>
-    <row r="172">
+    <row r="172" ht="42" customHeight="1">
       <c r="B172" t="inlineStr">
         <is>
           <t>Screenshot 2025-01-27 2020.png</t>
@@ -11225,7 +11225,7 @@
         </is>
       </c>
     </row>
-    <row r="173">
+    <row r="173" ht="42.75" customHeight="1">
       <c r="B173" t="inlineStr">
         <is>
           <t>Screenshot 2025-01-30 163427.png</t>
@@ -11237,7 +11237,7 @@
         </is>
       </c>
     </row>
-    <row r="174">
+    <row r="174" ht="45.75" customHeight="1">
       <c r="B174" t="inlineStr">
         <is>
           <t>Screenshot 2025-02-01 154745.png</t>
@@ -11249,7 +11249,7 @@
         </is>
       </c>
     </row>
-    <row r="175">
+    <row r="175" ht="45.75" customHeight="1">
       <c r="B175" t="inlineStr">
         <is>
           <t>Screenshot 2025-02-01 164250.png</t>
@@ -11261,7 +11261,7 @@
         </is>
       </c>
     </row>
-    <row r="176">
+    <row r="176" ht="68.25" customHeight="1">
       <c r="B176" t="inlineStr">
         <is>
           <t>Screenshot 2025-02-01 175456.png</t>
@@ -11273,7 +11273,7 @@
         </is>
       </c>
     </row>
-    <row r="177">
+    <row r="177" ht="12" customHeight="1">
       <c r="B177" t="inlineStr">
         <is>
           <t>Screenshot 2025-02-02 103645.png</t>
@@ -11285,7 +11285,7 @@
         </is>
       </c>
     </row>
-    <row r="178">
+    <row r="178" ht="42.75" customHeight="1">
       <c r="B178" t="inlineStr">
         <is>
           <t>Screenshot 2025-02-12 094704.png</t>
@@ -11297,7 +11297,7 @@
         </is>
       </c>
     </row>
-    <row r="179">
+    <row r="179" ht="41.25" customHeight="1">
       <c r="B179" t="inlineStr">
         <is>
           <t>Screenshot 2025-02-12 094928.png</t>
@@ -11309,7 +11309,7 @@
         </is>
       </c>
     </row>
-    <row r="180">
+    <row r="180" ht="41.25" customHeight="1">
       <c r="B180" t="inlineStr">
         <is>
           <t>Screenshot 2025-02-12 095450.png</t>
@@ -11321,7 +11321,7 @@
         </is>
       </c>
     </row>
-    <row r="181">
+    <row r="181" ht="41.25" customHeight="1">
       <c r="B181" t="inlineStr">
         <is>
           <t>Screenshot 2025-02-12 100041.png</t>
@@ -11333,7 +11333,7 @@
         </is>
       </c>
     </row>
-    <row r="182">
+    <row r="182" ht="42" customHeight="1">
       <c r="B182" t="inlineStr">
         <is>
           <t>Screenshot 2025-02-21 105333.png</t>
@@ -11345,7 +11345,7 @@
         </is>
       </c>
     </row>
-    <row r="183">
+    <row r="183" ht="99" customHeight="1">
       <c r="B183" t="inlineStr">
         <is>
           <t>Screenshot 2025-03-01 111629.png</t>
@@ -11357,7 +11357,7 @@
         </is>
       </c>
     </row>
-    <row r="184">
+    <row r="184" ht="45.75" customHeight="1">
       <c r="B184" t="inlineStr">
         <is>
           <t>Screenshot 2025-03-04 120746.png</t>
@@ -11369,7 +11369,7 @@
         </is>
       </c>
     </row>
-    <row r="185">
+    <row r="185" ht="44.25" customHeight="1">
       <c r="B185" t="inlineStr">
         <is>
           <t>Screenshot 2025-03-06 130350.png</t>
@@ -11381,7 +11381,7 @@
         </is>
       </c>
     </row>
-    <row r="186">
+    <row r="186" ht="14.25" customHeight="1">
       <c r="B186" t="inlineStr">
         <is>
           <t>Screenshot 2025-03-07 114625.png</t>
@@ -11393,7 +11393,7 @@
         </is>
       </c>
     </row>
-    <row r="187">
+    <row r="187" ht="14.25" customHeight="1">
       <c r="B187" t="inlineStr">
         <is>
           <t>Screenshot 2025-03-07 114732.png</t>
@@ -11405,7 +11405,7 @@
         </is>
       </c>
     </row>
-    <row r="188">
+    <row r="188" ht="45" customHeight="1">
       <c r="B188" t="inlineStr">
         <is>
           <t>Screenshot 2025-03-07 120723.png</t>
@@ -11417,7 +11417,7 @@
         </is>
       </c>
     </row>
-    <row r="189">
+    <row r="189" ht="66" customHeight="1">
       <c r="B189" t="inlineStr">
         <is>
           <t>Screenshot 2025-03-10 135413.png</t>
@@ -11429,7 +11429,7 @@
         </is>
       </c>
     </row>
-    <row r="190">
+    <row r="190" ht="54.75" customHeight="1">
       <c r="B190" t="inlineStr">
         <is>
           <t>Screenshot 2025-03-17 175519.png</t>
@@ -11441,7 +11441,7 @@
         </is>
       </c>
     </row>
-    <row r="191">
+    <row r="191" ht="46.5" customHeight="1">
       <c r="B191" t="inlineStr">
         <is>
           <t>Screenshot 2025-03-25 144731.png</t>
@@ -11453,7 +11453,7 @@
         </is>
       </c>
     </row>
-    <row r="192">
+    <row r="192" ht="59.25" customHeight="1">
       <c r="B192" t="inlineStr">
         <is>
           <t>Screenshot 2025-03-30 225813.png</t>
@@ -11465,7 +11465,7 @@
         </is>
       </c>
     </row>
-    <row r="193">
+    <row r="193" ht="44.25" customHeight="1">
       <c r="B193" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-02 144720.png</t>
@@ -11477,7 +11477,7 @@
         </is>
       </c>
     </row>
-    <row r="194">
+    <row r="194" ht="41.25" customHeight="1">
       <c r="B194" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-03 120846.png</t>
@@ -11489,7 +11489,7 @@
         </is>
       </c>
     </row>
-    <row r="195">
+    <row r="195" ht="86.25" customHeight="1">
       <c r="B195" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-03 121759.png</t>
@@ -11501,7 +11501,7 @@
         </is>
       </c>
     </row>
-    <row r="196">
+    <row r="196" ht="20.25" customHeight="1">
       <c r="B196" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-03 124852.png</t>
@@ -11513,7 +11513,7 @@
         </is>
       </c>
     </row>
-    <row r="197">
+    <row r="197" ht="46.5" customHeight="1">
       <c r="B197" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-06 130427.png</t>
@@ -11525,7 +11525,7 @@
         </is>
       </c>
     </row>
-    <row r="198">
+    <row r="198" ht="21" customHeight="1">
       <c r="B198" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-06 191326.png</t>
@@ -11537,7 +11537,7 @@
         </is>
       </c>
     </row>
-    <row r="199">
+    <row r="199" ht="33.75" customHeight="1">
       <c r="B199" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-09 103507.png</t>
@@ -11549,7 +11549,7 @@
         </is>
       </c>
     </row>
-    <row r="200">
+    <row r="200" ht="33.75" customHeight="1">
       <c r="B200" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-11 173313.png</t>
@@ -11561,7 +11561,7 @@
         </is>
       </c>
     </row>
-    <row r="201">
+    <row r="201" ht="31.5" customHeight="1">
       <c r="B201" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-12 102301.png</t>
@@ -11573,7 +11573,7 @@
         </is>
       </c>
     </row>
-    <row r="202">
+    <row r="202" ht="48" customHeight="1">
       <c r="B202" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-12 160155.png</t>
@@ -11585,7 +11585,7 @@
         </is>
       </c>
     </row>
-    <row r="203">
+    <row r="203" ht="62.25" customHeight="1">
       <c r="B203" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-12 163247.png</t>
@@ -11597,7 +11597,7 @@
         </is>
       </c>
     </row>
-    <row r="204">
+    <row r="204" ht="39" customHeight="1">
       <c r="B204" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-12 164726.png</t>
@@ -11609,7 +11609,7 @@
         </is>
       </c>
     </row>
-    <row r="205">
+    <row r="205" ht="17.25" customHeight="1">
       <c r="B205" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-12 164812.png</t>
@@ -11621,7 +11621,7 @@
         </is>
       </c>
     </row>
-    <row r="206">
+    <row r="206" ht="37.5" customHeight="1">
       <c r="B206" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-12 165408.png</t>
@@ -11633,7 +11633,7 @@
         </is>
       </c>
     </row>
-    <row r="207">
+    <row r="207" ht="17.25" customHeight="1">
       <c r="B207" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-12 165552.png</t>
@@ -11645,7 +11645,7 @@
         </is>
       </c>
     </row>
-    <row r="208">
+    <row r="208" ht="17.25" customHeight="1">
       <c r="B208" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-12 170200.png</t>
@@ -11657,7 +11657,7 @@
         </is>
       </c>
     </row>
-    <row r="209">
+    <row r="209" ht="38.25" customHeight="1">
       <c r="B209" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-12 170250.png</t>
@@ -11669,7 +11669,7 @@
         </is>
       </c>
     </row>
-    <row r="210">
+    <row r="210" ht="40.5" customHeight="1">
       <c r="B210" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-12 171705.png</t>
@@ -11681,7 +11681,7 @@
         </is>
       </c>
     </row>
-    <row r="211">
+    <row r="211" ht="46.5" customHeight="1">
       <c r="B211" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-15 095113.png</t>
@@ -11693,7 +11693,7 @@
         </is>
       </c>
     </row>
-    <row r="212">
+    <row r="212" ht="46.5" customHeight="1">
       <c r="B212" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-16 124546.png</t>
@@ -11705,7 +11705,7 @@
         </is>
       </c>
     </row>
-    <row r="213">
+    <row r="213" ht="93" customHeight="1">
       <c r="B213" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-17 163602.png</t>
@@ -11717,7 +11717,7 @@
         </is>
       </c>
     </row>
-    <row r="214">
+    <row r="214" ht="92.25" customHeight="1">
       <c r="B214" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-17 163650.png</t>
@@ -11729,7 +11729,7 @@
         </is>
       </c>
     </row>
-    <row r="215">
+    <row r="215" ht="92.25" customHeight="1">
       <c r="B215" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-17 164424.png</t>
@@ -11741,7 +11741,7 @@
         </is>
       </c>
     </row>
-    <row r="216">
+    <row r="216" ht="93" customHeight="1">
       <c r="B216" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-17 164549.png</t>
@@ -11753,7 +11753,7 @@
         </is>
       </c>
     </row>
-    <row r="217">
+    <row r="217" ht="93" customHeight="1">
       <c r="B217" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-17 164719.png</t>
@@ -11765,7 +11765,7 @@
         </is>
       </c>
     </row>
-    <row r="218">
+    <row r="218" ht="93" customHeight="1">
       <c r="B218" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-17 164859.png</t>
@@ -11777,7 +11777,7 @@
         </is>
       </c>
     </row>
-    <row r="219">
+    <row r="219" ht="92.25" customHeight="1">
       <c r="B219" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-17 165109.png</t>
@@ -11789,7 +11789,7 @@
         </is>
       </c>
     </row>
-    <row r="220">
+    <row r="220" ht="80.25" customHeight="1">
       <c r="B220" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-17 172108.png</t>
@@ -11801,7 +11801,7 @@
         </is>
       </c>
     </row>
-    <row r="221">
+    <row r="221" ht="127.5" customHeight="1">
       <c r="B221" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-17 172143.png</t>
@@ -11813,7 +11813,7 @@
         </is>
       </c>
     </row>
-    <row r="222">
+    <row r="222" ht="46.5" customHeight="1">
       <c r="B222" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-19 205907.png</t>
@@ -11825,7 +11825,7 @@
         </is>
       </c>
     </row>
-    <row r="223">
+    <row r="223" ht="40.5" customHeight="1">
       <c r="B223" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-21 194344.png</t>
@@ -11837,7 +11837,7 @@
         </is>
       </c>
     </row>
-    <row r="224">
+    <row r="224" ht="46.5" customHeight="1">
       <c r="B224" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-21 194424.png</t>
@@ -11849,7 +11849,7 @@
         </is>
       </c>
     </row>
-    <row r="225">
+    <row r="225" ht="46.5" customHeight="1">
       <c r="B225" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-21 194655.png</t>
@@ -11861,7 +11861,7 @@
         </is>
       </c>
     </row>
-    <row r="226">
+    <row r="226" ht="46.5" customHeight="1">
       <c r="B226" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-21 194812.png</t>
@@ -11873,7 +11873,7 @@
         </is>
       </c>
     </row>
-    <row r="227">
+    <row r="227" ht="46.5" customHeight="1">
       <c r="B227" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-21 194951.png</t>
@@ -11885,7 +11885,7 @@
         </is>
       </c>
     </row>
-    <row r="228">
+    <row r="228" ht="46.5" customHeight="1">
       <c r="B228" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-21 195024.png</t>
@@ -11897,7 +11897,7 @@
         </is>
       </c>
     </row>
-    <row r="229">
+    <row r="229" ht="93" customHeight="1">
       <c r="B229" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-21 collage.png</t>
@@ -11909,7 +11909,7 @@
         </is>
       </c>
     </row>
-    <row r="230">
+    <row r="230" ht="46.5" customHeight="1">
       <c r="B230" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-22 081328.png</t>
@@ -11921,7 +11921,7 @@
         </is>
       </c>
     </row>
-    <row r="231">
+    <row r="231" ht="46.5" customHeight="1">
       <c r="B231" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-24 212857.png</t>
@@ -11933,7 +11933,7 @@
         </is>
       </c>
     </row>
-    <row r="232">
+    <row r="232" ht="46.5" customHeight="1">
       <c r="B232" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-24 213203.png</t>
@@ -11945,7 +11945,7 @@
         </is>
       </c>
     </row>
-    <row r="233">
+    <row r="233" ht="46.5" customHeight="1">
       <c r="B233" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-24 213230.png</t>
@@ -11957,7 +11957,7 @@
         </is>
       </c>
     </row>
-    <row r="234">
+    <row r="234" ht="69.75" customHeight="1">
       <c r="B234" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-24 213402.png</t>
@@ -11969,7 +11969,7 @@
         </is>
       </c>
     </row>
-    <row r="235">
+    <row r="235" ht="160.5" customHeight="1">
       <c r="B235" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-24 213440.png</t>
@@ -11981,7 +11981,7 @@
         </is>
       </c>
     </row>
-    <row r="236">
+    <row r="236" ht="46.5" customHeight="1">
       <c r="B236" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-24 220745.png</t>
@@ -11993,7 +11993,7 @@
         </is>
       </c>
     </row>
-    <row r="237">
+    <row r="237" ht="46.5" customHeight="1">
       <c r="B237" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-24 220811.png</t>
@@ -12005,7 +12005,7 @@
         </is>
       </c>
     </row>
-    <row r="238">
+    <row r="238" ht="46.5" customHeight="1">
       <c r="B238" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-24 220823.png</t>
@@ -12017,7 +12017,7 @@
         </is>
       </c>
     </row>
-    <row r="239">
+    <row r="239" ht="46.5" customHeight="1">
       <c r="B239" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-24 220844.png</t>
@@ -12029,7 +12029,7 @@
         </is>
       </c>
     </row>
-    <row r="240">
+    <row r="240" ht="42" customHeight="1">
       <c r="B240" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-26 103129.png</t>
@@ -12041,7 +12041,7 @@
         </is>
       </c>
     </row>
-    <row r="241">
+    <row r="241" ht="42" customHeight="1">
       <c r="B241" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-26 111009.png</t>
@@ -12053,7 +12053,7 @@
         </is>
       </c>
     </row>
-    <row r="242">
+    <row r="242" ht="42" customHeight="1">
       <c r="B242" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-26 144855.png</t>
@@ -12065,7 +12065,7 @@
         </is>
       </c>
     </row>
-    <row r="243">
+    <row r="243" ht="44.25" customHeight="1">
       <c r="B243" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-26 233927.png</t>
@@ -12077,7 +12077,7 @@
         </is>
       </c>
     </row>
-    <row r="244">
+    <row r="244" ht="30.75" customHeight="1">
       <c r="B244" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-30 153155.png</t>
@@ -12089,7 +12089,7 @@
         </is>
       </c>
     </row>
-    <row r="245">
+    <row r="245" ht="29.25" customHeight="1">
       <c r="B245" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-30 204130.png</t>
@@ -12101,7 +12101,7 @@
         </is>
       </c>
     </row>
-    <row r="246">
+    <row r="246" ht="45" customHeight="1">
       <c r="B246" t="inlineStr">
         <is>
           <t>Screenshot 2025-04-30 211540.png</t>
@@ -12113,7 +12113,7 @@
         </is>
       </c>
     </row>
-    <row r="247">
+    <row r="247" ht="46.5" customHeight="1">
       <c r="B247" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-02 161100.png</t>
@@ -12125,7 +12125,7 @@
         </is>
       </c>
     </row>
-    <row r="248">
+    <row r="248" ht="46.5" customHeight="1">
       <c r="B248" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-02 161735.png</t>
@@ -12137,7 +12137,7 @@
         </is>
       </c>
     </row>
-    <row r="249">
+    <row r="249" ht="18.75" customHeight="1">
       <c r="B249" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-06 003339.png</t>
@@ -12149,7 +12149,7 @@
         </is>
       </c>
     </row>
-    <row r="250">
+    <row r="250" ht="54.75" customHeight="1">
       <c r="B250" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-06 013856.png</t>
@@ -12161,7 +12161,7 @@
         </is>
       </c>
     </row>
-    <row r="251">
+    <row r="251" ht="62.25" customHeight="1">
       <c r="B251" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-06 014110.png</t>
@@ -12173,7 +12173,7 @@
         </is>
       </c>
     </row>
-    <row r="252">
+    <row r="252" ht="61.5" customHeight="1">
       <c r="B252" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-06 014244.png</t>
@@ -12185,7 +12185,7 @@
         </is>
       </c>
     </row>
-    <row r="253">
+    <row r="253" ht="67.5" customHeight="1">
       <c r="B253" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-06 041659.png</t>
@@ -12197,7 +12197,7 @@
         </is>
       </c>
     </row>
-    <row r="254">
+    <row r="254" ht="59.25" customHeight="1">
       <c r="B254" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-06 041811.png</t>
@@ -12209,7 +12209,7 @@
         </is>
       </c>
     </row>
-    <row r="255">
+    <row r="255" ht="72.75" customHeight="1">
       <c r="B255" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-06 041845.png</t>
@@ -12221,7 +12221,7 @@
         </is>
       </c>
     </row>
-    <row r="256">
+    <row r="256" ht="71.25" customHeight="1">
       <c r="B256" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-06 043302.png</t>
@@ -12233,7 +12233,7 @@
         </is>
       </c>
     </row>
-    <row r="257">
+    <row r="257" ht="45.75" customHeight="1">
       <c r="B257" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-06 111251.png</t>
@@ -12245,7 +12245,7 @@
         </is>
       </c>
     </row>
-    <row r="258">
+    <row r="258" ht="42" customHeight="1">
       <c r="B258" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-06 112725.png</t>
@@ -12257,7 +12257,7 @@
         </is>
       </c>
     </row>
-    <row r="259">
+    <row r="259" ht="91.5" customHeight="1">
       <c r="B259" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-08 152958.png</t>
@@ -12269,7 +12269,7 @@
         </is>
       </c>
     </row>
-    <row r="260">
+    <row r="260" ht="91.5" customHeight="1">
       <c r="B260" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-08 153921.png</t>
@@ -12281,7 +12281,7 @@
         </is>
       </c>
     </row>
-    <row r="261">
+    <row r="261" ht="93" customHeight="1">
       <c r="B261" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-08 154757.png</t>
@@ -12293,7 +12293,7 @@
         </is>
       </c>
     </row>
-    <row r="262">
+    <row r="262" ht="91.5" customHeight="1">
       <c r="B262" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-08 155812.png</t>
@@ -12305,7 +12305,7 @@
         </is>
       </c>
     </row>
-    <row r="263">
+    <row r="263" ht="91.5" customHeight="1">
       <c r="B263" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-08 161834.png</t>
@@ -12317,7 +12317,7 @@
         </is>
       </c>
     </row>
-    <row r="264">
+    <row r="264" ht="91.5" customHeight="1">
       <c r="B264" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-08 162047.png</t>
@@ -12329,7 +12329,7 @@
         </is>
       </c>
     </row>
-    <row r="265">
+    <row r="265" ht="92.25" customHeight="1">
       <c r="B265" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-08 163445.png</t>
@@ -12341,7 +12341,7 @@
         </is>
       </c>
     </row>
-    <row r="266">
+    <row r="266" ht="91.5" customHeight="1">
       <c r="B266" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-08 163457.png</t>
@@ -12353,7 +12353,7 @@
         </is>
       </c>
     </row>
-    <row r="267">
+    <row r="267" ht="91.5" customHeight="1">
       <c r="B267" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-08 163753.png</t>
@@ -12365,7 +12365,7 @@
         </is>
       </c>
     </row>
-    <row r="268">
+    <row r="268" ht="92.25" customHeight="1">
       <c r="B268" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-08 164212.png</t>
@@ -12377,7 +12377,7 @@
         </is>
       </c>
     </row>
-    <row r="269">
+    <row r="269" ht="92.25" customHeight="1">
       <c r="B269" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-08 164608.png</t>
@@ -12389,7 +12389,7 @@
         </is>
       </c>
     </row>
-    <row r="270">
+    <row r="270" ht="38.25" customHeight="1">
       <c r="B270" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-09 091947.png</t>
@@ -12401,7 +12401,7 @@
         </is>
       </c>
     </row>
-    <row r="271">
+    <row r="271" ht="23.25" customHeight="1">
       <c r="B271" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-09 155910.png</t>
@@ -12413,7 +12413,7 @@
         </is>
       </c>
     </row>
-    <row r="272">
+    <row r="272" ht="80.25" customHeight="1">
       <c r="B272" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-15 152505.png</t>
@@ -12425,7 +12425,7 @@
         </is>
       </c>
     </row>
-    <row r="273">
+    <row r="273" ht="79.5" customHeight="1">
       <c r="B273" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-15 152921.png</t>
@@ -12437,7 +12437,7 @@
         </is>
       </c>
     </row>
-    <row r="274">
+    <row r="274" ht="79.5" customHeight="1">
       <c r="B274" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-15 153101.png</t>
@@ -12449,7 +12449,7 @@
         </is>
       </c>
     </row>
-    <row r="275">
+    <row r="275" ht="79.5" customHeight="1">
       <c r="B275" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-15 153348.png</t>
@@ -12461,7 +12461,7 @@
         </is>
       </c>
     </row>
-    <row r="276">
+    <row r="276" ht="80.25" customHeight="1">
       <c r="B276" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-15 153435.png</t>
@@ -12473,7 +12473,7 @@
         </is>
       </c>
     </row>
-    <row r="277">
+    <row r="277" ht="80.25" customHeight="1">
       <c r="B277" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-15 153547.png</t>
@@ -12485,7 +12485,7 @@
         </is>
       </c>
     </row>
-    <row r="278">
+    <row r="278" ht="81" customHeight="1">
       <c r="B278" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-15 153736.png</t>
@@ -12497,7 +12497,7 @@
         </is>
       </c>
     </row>
-    <row r="279">
+    <row r="279" ht="80.25" customHeight="1">
       <c r="B279" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-15 153839.png</t>
@@ -12509,7 +12509,7 @@
         </is>
       </c>
     </row>
-    <row r="280">
+    <row r="280" ht="80.25" customHeight="1">
       <c r="B280" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-15 161358.png</t>
@@ -12521,7 +12521,7 @@
         </is>
       </c>
     </row>
-    <row r="281">
+    <row r="281" ht="79.5" customHeight="1">
       <c r="B281" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-15 161547.png</t>
@@ -12533,7 +12533,7 @@
         </is>
       </c>
     </row>
-    <row r="282">
+    <row r="282" ht="74.25" customHeight="1">
       <c r="B282" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-19 184906.png</t>
@@ -12545,7 +12545,7 @@
         </is>
       </c>
     </row>
-    <row r="283">
+    <row r="283" ht="69.75" customHeight="1">
       <c r="B283" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-20 125559.png</t>
@@ -12557,7 +12557,7 @@
         </is>
       </c>
     </row>
-    <row r="284">
+    <row r="284" ht="75" customHeight="1">
       <c r="B284" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-20 125828.png</t>
@@ -12569,7 +12569,7 @@
         </is>
       </c>
     </row>
-    <row r="285">
+    <row r="285" ht="42.75" customHeight="1">
       <c r="B285" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-20 130129.png</t>
@@ -12581,7 +12581,7 @@
         </is>
       </c>
     </row>
-    <row r="286">
+    <row r="286" ht="41.25" customHeight="1">
       <c r="B286" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-20 154258.png</t>
@@ -12593,7 +12593,7 @@
         </is>
       </c>
     </row>
-    <row r="287">
+    <row r="287" ht="45" customHeight="1">
       <c r="B287" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 151501.png</t>
@@ -12605,7 +12605,7 @@
         </is>
       </c>
     </row>
-    <row r="288">
+    <row r="288" ht="42" customHeight="1">
       <c r="B288" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 154112.png</t>
@@ -12617,7 +12617,7 @@
         </is>
       </c>
     </row>
-    <row r="289">
+    <row r="289" ht="42" customHeight="1">
       <c r="B289" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 154522.png</t>
@@ -12629,7 +12629,7 @@
         </is>
       </c>
     </row>
-    <row r="290">
+    <row r="290" ht="42" customHeight="1">
       <c r="B290" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 154544.png</t>
@@ -12641,7 +12641,7 @@
         </is>
       </c>
     </row>
-    <row r="291">
+    <row r="291" ht="41.25" customHeight="1">
       <c r="B291" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 154948.png</t>
@@ -12653,7 +12653,7 @@
         </is>
       </c>
     </row>
-    <row r="292">
+    <row r="292" ht="42.75" customHeight="1">
       <c r="B292" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 155016.png</t>
@@ -12665,7 +12665,7 @@
         </is>
       </c>
     </row>
-    <row r="293">
+    <row r="293" ht="32.25" customHeight="1">
       <c r="B293" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 160008.png</t>
@@ -12677,7 +12677,7 @@
         </is>
       </c>
     </row>
-    <row r="294">
+    <row r="294" ht="34.5" customHeight="1">
       <c r="B294" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 160132.png</t>
@@ -12689,7 +12689,7 @@
         </is>
       </c>
     </row>
-    <row r="295">
+    <row r="295" ht="39" customHeight="1">
       <c r="B295" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 160317.png</t>
@@ -12701,7 +12701,7 @@
         </is>
       </c>
     </row>
-    <row r="296">
+    <row r="296" ht="36" customHeight="1">
       <c r="B296" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 160938.png</t>
@@ -12713,7 +12713,7 @@
         </is>
       </c>
     </row>
-    <row r="297">
+    <row r="297" ht="42" customHeight="1">
       <c r="B297" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 161535.png</t>
@@ -12725,7 +12725,7 @@
         </is>
       </c>
     </row>
-    <row r="298">
+    <row r="298" ht="39" customHeight="1">
       <c r="B298" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 162030.png</t>
@@ -12737,7 +12737,7 @@
         </is>
       </c>
     </row>
-    <row r="299">
+    <row r="299" ht="39" customHeight="1">
       <c r="B299" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 162130.png</t>
@@ -12749,7 +12749,7 @@
         </is>
       </c>
     </row>
-    <row r="300">
+    <row r="300" ht="32.25" customHeight="1">
       <c r="B300" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 162738.png</t>
@@ -12761,7 +12761,7 @@
         </is>
       </c>
     </row>
-    <row r="301">
+    <row r="301" ht="42" customHeight="1">
       <c r="B301" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 163206.png</t>
@@ -12773,7 +12773,7 @@
         </is>
       </c>
     </row>
-    <row r="302">
+    <row r="302" ht="42" customHeight="1">
       <c r="B302" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 163855.png</t>
@@ -12785,7 +12785,7 @@
         </is>
       </c>
     </row>
-    <row r="303">
+    <row r="303" ht="32.25" customHeight="1">
       <c r="B303" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 164135.png</t>
@@ -12797,7 +12797,7 @@
         </is>
       </c>
     </row>
-    <row r="304">
+    <row r="304" ht="39.75" customHeight="1">
       <c r="B304" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 164209.png</t>
@@ -12809,7 +12809,7 @@
         </is>
       </c>
     </row>
-    <row r="305">
+    <row r="305" ht="36.75" customHeight="1">
       <c r="B305" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 164421.png</t>
@@ -12821,7 +12821,7 @@
         </is>
       </c>
     </row>
-    <row r="306">
+    <row r="306" ht="36.75" customHeight="1">
       <c r="B306" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 165226.png</t>
@@ -12833,7 +12833,7 @@
         </is>
       </c>
     </row>
-    <row r="307">
+    <row r="307" ht="40.5" customHeight="1">
       <c r="B307" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-22 165940.png</t>
@@ -12845,7 +12845,7 @@
         </is>
       </c>
     </row>
-    <row r="308">
+    <row r="308" ht="50.25" customHeight="1">
       <c r="B308" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-25 200403.png</t>
@@ -12857,7 +12857,7 @@
         </is>
       </c>
     </row>
-    <row r="309">
+    <row r="309" ht="87.75" customHeight="1">
       <c r="B309" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-27 123652.png</t>
@@ -12869,7 +12869,7 @@
         </is>
       </c>
     </row>
-    <row r="310">
+    <row r="310" ht="88.5" customHeight="1">
       <c r="B310" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-27 123727.png</t>
@@ -12881,7 +12881,7 @@
         </is>
       </c>
     </row>
-    <row r="311">
+    <row r="311" ht="87" customHeight="1">
       <c r="B311" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-27 123759.png</t>
@@ -12893,7 +12893,7 @@
         </is>
       </c>
     </row>
-    <row r="312">
+    <row r="312" ht="54.75" customHeight="1">
       <c r="B312" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-29 153716.png</t>
@@ -12905,7 +12905,7 @@
         </is>
       </c>
     </row>
-    <row r="313">
+    <row r="313" ht="54" customHeight="1">
       <c r="B313" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-29 154034.png</t>
@@ -12917,7 +12917,7 @@
         </is>
       </c>
     </row>
-    <row r="314">
+    <row r="314" ht="54" customHeight="1">
       <c r="B314" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-29 155712.png</t>
@@ -12929,7 +12929,7 @@
         </is>
       </c>
     </row>
-    <row r="315">
+    <row r="315" ht="51.75" customHeight="1">
       <c r="B315" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-29 160425.png</t>
@@ -12941,7 +12941,7 @@
         </is>
       </c>
     </row>
-    <row r="316">
+    <row r="316" ht="49.5" customHeight="1">
       <c r="B316" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-29 161104.png</t>
@@ -12953,7 +12953,7 @@
         </is>
       </c>
     </row>
-    <row r="317">
+    <row r="317" ht="47.25" customHeight="1">
       <c r="B317" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-29 161231.png</t>
@@ -12965,7 +12965,7 @@
         </is>
       </c>
     </row>
-    <row r="318">
+    <row r="318" ht="48" customHeight="1">
       <c r="B318" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-29 161937.png</t>
@@ -12977,7 +12977,7 @@
         </is>
       </c>
     </row>
-    <row r="319">
+    <row r="319" ht="51.75" customHeight="1">
       <c r="B319" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-29 162241.png</t>
@@ -12989,7 +12989,7 @@
         </is>
       </c>
     </row>
-    <row r="320">
+    <row r="320" ht="45" customHeight="1">
       <c r="B320" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-29 163345.png</t>
@@ -13001,7 +13001,7 @@
         </is>
       </c>
     </row>
-    <row r="321">
+    <row r="321" ht="59.25" customHeight="1">
       <c r="B321" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-29 164650.png</t>
@@ -13013,7 +13013,7 @@
         </is>
       </c>
     </row>
-    <row r="322">
+    <row r="322" ht="51" customHeight="1">
       <c r="B322" t="inlineStr">
         <is>
           <t>Screenshot 2025-05-29 165000.png</t>
@@ -13025,7 +13025,7 @@
         </is>
       </c>
     </row>
-    <row r="323">
+    <row r="323" ht="42.75" customHeight="1">
       <c r="B323" t="inlineStr">
         <is>
           <t>Screenshot 2025-06-03 204047.png</t>
@@ -13037,7 +13037,7 @@
         </is>
       </c>
     </row>
-    <row r="324">
+    <row r="324" ht="46.5" customHeight="1">
       <c r="B324" t="inlineStr">
         <is>
           <t>Screenshot 2025-06-07 190249.png</t>
@@ -13049,7 +13049,7 @@
         </is>
       </c>
     </row>
-    <row r="325">
+    <row r="325" ht="62.25" customHeight="1">
       <c r="B325" t="inlineStr">
         <is>
           <t>Screenshot 2025-06-09 220304.png</t>
@@ -13061,7 +13061,7 @@
         </is>
       </c>
     </row>
-    <row r="326">
+    <row r="326" ht="39" customHeight="1">
       <c r="B326" t="inlineStr">
         <is>
           <t>Screenshot 2025-06-11 231306.png</t>
@@ -13073,7 +13073,7 @@
         </is>
       </c>
     </row>
-    <row r="327">
+    <row r="327" ht="39.75" customHeight="1">
       <c r="B327" t="inlineStr">
         <is>
           <t>Screenshot 2025-06-12 141130.png</t>
@@ -13085,7 +13085,7 @@
         </is>
       </c>
     </row>
-    <row r="328">
+    <row r="328" ht="81" customHeight="1">
       <c r="B328" t="inlineStr">
         <is>
           <t>Screenshot 2025-06-13 194145.png</t>
@@ -13097,7 +13097,7 @@
         </is>
       </c>
     </row>
-    <row r="329">
+    <row r="329" ht="56.25" customHeight="1">
       <c r="B329" t="inlineStr">
         <is>
           <t>Screenshot 2025-06-27 132819.png</t>
@@ -13109,7 +13109,7 @@
         </is>
       </c>
     </row>
-    <row r="330">
+    <row r="330" ht="46.5" customHeight="1">
       <c r="B330" t="inlineStr">
         <is>
           <t>Screenshot 2025-07-10 202539.png</t>
@@ -13121,7 +13121,7 @@
         </is>
       </c>
     </row>
-    <row r="331">
+    <row r="331" ht="42.75" customHeight="1">
       <c r="B331" t="inlineStr">
         <is>
           <t>Screenshot 2025-07-16 233549.png</t>
@@ -13133,7 +13133,7 @@
         </is>
       </c>
     </row>
-    <row r="332">
+    <row r="332" ht="46.5" customHeight="1">
       <c r="B332" t="inlineStr">
         <is>
           <t>Screenshot 2025-07-18 185656.png</t>
@@ -13145,7 +13145,7 @@
         </is>
       </c>
     </row>
-    <row r="333">
+    <row r="333" ht="46.5" customHeight="1">
       <c r="B333" t="inlineStr">
         <is>
           <t>Screenshot 2025-07-20 174047.png</t>
@@ -13157,7 +13157,7 @@
         </is>
       </c>
     </row>
-    <row r="334">
+    <row r="334" ht="56.25" customHeight="1">
       <c r="B334" t="inlineStr">
         <is>
           <t>Screenshot 2025-07-23 131602.png</t>
@@ -13169,7 +13169,7 @@
         </is>
       </c>
     </row>
-    <row r="335">
+    <row r="335" ht="50.25" customHeight="1">
       <c r="B335" t="inlineStr">
         <is>
           <t>Screenshot 2025-07-23 132025.png</t>
@@ -13181,7 +13181,7 @@
         </is>
       </c>
     </row>
-    <row r="336">
+    <row r="336" ht="56.25" customHeight="1">
       <c r="B336" t="inlineStr">
         <is>
           <t>Screenshot 2025-07-23 132355.png</t>
@@ -13193,7 +13193,7 @@
         </is>
       </c>
     </row>
-    <row r="337">
+    <row r="337" ht="46.5" customHeight="1">
       <c r="B337" t="inlineStr">
         <is>
           <t>Screenshot 2025-08-01 225639.png</t>
@@ -13205,7 +13205,7 @@
         </is>
       </c>
     </row>
-    <row r="338">
+    <row r="338" ht="78" customHeight="1">
       <c r="B338" t="inlineStr">
         <is>
           <t>Screenshot 2025-08-02 200703.png</t>
@@ -13217,7 +13217,7 @@
         </is>
       </c>
     </row>
-    <row r="339">
+    <row r="339" ht="68.25" customHeight="1">
       <c r="B339" t="inlineStr">
         <is>
           <t>Screenshot 2025-08-03 133018.png</t>
@@ -13229,7 +13229,7 @@
         </is>
       </c>
     </row>
-    <row r="340">
+    <row r="340" ht="92.25" customHeight="1">
       <c r="B340" t="inlineStr">
         <is>
           <t>Screenshot 2025-08-03 154812.png</t>
@@ -13241,7 +13241,7 @@
         </is>
       </c>
     </row>
-    <row r="341">
+    <row r="341" ht="60" customHeight="1">
       <c r="B341" t="inlineStr">
         <is>
           <t>Screenshot 2025-08-05 160007.png</t>
@@ -13253,7 +13253,7 @@
         </is>
       </c>
     </row>
-    <row r="342">
+    <row r="342" ht="49.5" customHeight="1">
       <c r="B342" t="inlineStr">
         <is>
           <t>Screenshot 2025-08-05 160313.png</t>
@@ -13265,7 +13265,7 @@
         </is>
       </c>
     </row>
-    <row r="343">
+    <row r="343" ht="46.5" customHeight="1">
       <c r="B343" t="inlineStr">
         <is>
           <t>Screenshot 2025-08-12 121830.png</t>
@@ -13277,7 +13277,7 @@
         </is>
       </c>
     </row>
-    <row r="344">
+    <row r="344" ht="46.5" customHeight="1">
       <c r="B344" t="inlineStr">
         <is>
           <t>Screenshot 2025-08-12 221638.png</t>
@@ -13289,7 +13289,7 @@
         </is>
       </c>
     </row>
-    <row r="345">
+    <row r="345" ht="46.5" customHeight="1">
       <c r="B345" t="inlineStr">
         <is>
           <t>Screenshot 2025-08-14 132720.png</t>
@@ -13301,7 +13301,7 @@
         </is>
       </c>
     </row>
-    <row r="346">
+    <row r="346" ht="46.5" customHeight="1">
       <c r="B346" t="inlineStr">
         <is>
           <t>Screenshot 2025-08-16 173140.png</t>
@@ -13313,7 +13313,7 @@
         </is>
       </c>
     </row>
-    <row r="347">
+    <row r="347" ht="46.5" customHeight="1">
       <c r="B347" t="inlineStr">
         <is>
           <t>Screenshot 2025-08-18 204837.png</t>
@@ -13325,7 +13325,7 @@
         </is>
       </c>
     </row>
-    <row r="348">
+    <row r="348" ht="107.25" customHeight="1">
       <c r="B348" t="inlineStr">
         <is>
           <t>Screenshot 2025-08-18 214632.png</t>
@@ -13337,7 +13337,7 @@
         </is>
       </c>
     </row>
-    <row r="349">
+    <row r="349" ht="48.75" customHeight="1">
       <c r="B349" t="inlineStr">
         <is>
           <t>Screenshot 2025-08-21 113833.png</t>
@@ -13349,7 +13349,7 @@
         </is>
       </c>
     </row>
-    <row r="350">
+    <row r="350" ht="60" customHeight="1">
       <c r="B350" t="inlineStr">
         <is>
           <t>Screenshot 2025-08-26 102531.png</t>
@@ -13361,7 +13361,7 @@
         </is>
       </c>
     </row>
-    <row r="351">
+    <row r="351" ht="90.75" customHeight="1">
       <c r="B351" t="inlineStr">
         <is>
           <t>Screenshot 2025-08-26 154613.png</t>
